--- a/Results/SummaryResultsNitrate.xlsx
+++ b/Results/SummaryResultsNitrate.xlsx
@@ -9,17 +9,86 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27810" windowHeight="12795"/>
+    <workbookView xWindow="1752" yWindow="0" windowWidth="27816" windowHeight="12792"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryResultsNitrate" sheetId="1" r:id="rId1"/>
+    <sheet name="2015" sheetId="2" r:id="rId2"/>
+    <sheet name="2015Summary" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="nitNsd" localSheetId="1">'2015'!$A$10:$M$15</definedName>
+    <definedName name="Smg" localSheetId="1">'2015'!$A$18:$M$24</definedName>
+    <definedName name="Smgsd" localSheetId="1">'2015'!$A$26:$M$31</definedName>
+  </definedNames>
+  <calcPr calcId="171027" concurrentCalc="0"/>
 </workbook>
 </file>
 
+<file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="nitNsd1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\HY-Data\TOPARVIA\OneDrive - University of Helsinki\Projektit\Kuitulietekoe2016\Analyysit\nitNsd.txt" thousands=" " comma="1" consecutive="1">
+      <textFields count="13">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="Smg1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\HY-Data\TOPARVIA\OneDrive - University of Helsinki\Projektit\Kuitulietekoe2016\Analyysit\Smg.txt" thousands=" " comma="1" consecutive="1">
+      <textFields count="13">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="3" name="Smgsd1" type="6" refreshedVersion="5" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="C:\HY-Data\TOPARVIA\OneDrive - University of Helsinki\Projektit\Kuitulietekoe2016\Analyysit\Smgsd.txt" thousands=" " comma="1" consecutive="1">
+      <textFields count="13">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+</connections>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="114">
   <si>
     <t>kas</t>
   </si>
@@ -94,16 +163,285 @@
   </si>
   <si>
     <t>Kaikki olivat tasan 13 siksi SD on 0</t>
+  </si>
+  <si>
+    <t>Nitrate</t>
+  </si>
+  <si>
+    <t>MEANS</t>
+  </si>
+  <si>
+    <t>R.1</t>
+  </si>
+  <si>
+    <t>KK.1</t>
+  </si>
+  <si>
+    <t>P.1</t>
+  </si>
+  <si>
+    <t>AK.1</t>
+  </si>
+  <si>
+    <t>R.2</t>
+  </si>
+  <si>
+    <t>KK.2</t>
+  </si>
+  <si>
+    <t>P.2</t>
+  </si>
+  <si>
+    <t>AK.2</t>
+  </si>
+  <si>
+    <t>R.3</t>
+  </si>
+  <si>
+    <t>KK.3</t>
+  </si>
+  <si>
+    <t>P.3</t>
+  </si>
+  <si>
+    <t>AK.3</t>
+  </si>
+  <si>
+    <t>1. sampling</t>
+  </si>
+  <si>
+    <t>2. sampling</t>
+  </si>
+  <si>
+    <t>3. sampling</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Sulfur</t>
+  </si>
+  <si>
+    <t>Difference between treatments, nitrate level in soil</t>
+  </si>
+  <si>
+    <t>in 29.9.2015</t>
+  </si>
+  <si>
+    <t>Rye</t>
+  </si>
+  <si>
+    <t>Assumptions</t>
+  </si>
+  <si>
+    <t>Soil sampling depth</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>area: 100m*100m</t>
+  </si>
+  <si>
+    <t>m2</t>
+  </si>
+  <si>
+    <t>soil density</t>
+  </si>
+  <si>
+    <t>kg/dm3</t>
+  </si>
+  <si>
+    <t>soil mass</t>
+  </si>
+  <si>
+    <t>tons</t>
+  </si>
+  <si>
+    <t>mg/kg</t>
+  </si>
+  <si>
+    <t>Nitrate mg per hectare</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>Treatments reduce nitrate level in soil from</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>Nitrate kg per hectare</t>
+  </si>
+  <si>
+    <t>kg/ha</t>
+  </si>
+  <si>
+    <t>in 23.10.2015</t>
+  </si>
+  <si>
+    <t>Typpitilanne C</t>
+  </si>
+  <si>
+    <t>Typpivähenemä S1-4</t>
+  </si>
+  <si>
+    <t>Typpitilanne S1-4</t>
+  </si>
+  <si>
+    <t>Vähenemä S1-S4</t>
+  </si>
+  <si>
+    <t>Nitraatti S1-4</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Nitrate leaching</t>
+  </si>
+  <si>
+    <t>Reductions</t>
+  </si>
+  <si>
+    <t>in 15.11.2015</t>
+  </si>
+  <si>
+    <t>Compared</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>AVG.</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>VEHNÄ</t>
+  </si>
+  <si>
+    <t>ALUSKASVI</t>
+  </si>
+  <si>
+    <t>Rukiin lannoitus</t>
+  </si>
+  <si>
+    <t>RUIS</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>rS1</t>
+  </si>
+  <si>
+    <t>rS2</t>
+  </si>
+  <si>
+    <t>rS3</t>
+  </si>
+  <si>
+    <t>rS4</t>
+  </si>
+  <si>
+    <t>rM</t>
+  </si>
+  <si>
+    <t>vehnä 2015, ruis 2015 syksyllä, ohra 2017</t>
+  </si>
+  <si>
+    <t>KEVÄT</t>
+  </si>
+  <si>
+    <t>Mineraalilannoite Uralchem (NPKS 27-6-6-2), 80 kg N/ha</t>
+  </si>
+  <si>
+    <t>SYKSY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukiin kylvö (198 kg/ha) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukiin kylvö (198 kg/ha) +  lannoitus Kevätviljan Hiven Y (20-3-8) 30 kg N/ha </t>
+  </si>
+  <si>
+    <t>Lannoitus Suomensalpietari 27-0-1, 50 N kg/ha</t>
+  </si>
+  <si>
+    <t>Lannoitus Suomensalpietari 27-0-1, 80 N kg/ha</t>
+  </si>
+  <si>
+    <t>Kaukopään kompostoitu sekaliete: 51,37 t/ha = 113 kg/ koeruutu</t>
+  </si>
+  <si>
+    <t>Kaukopään kalkkistabiloitu sekaliete: 52,09 t/ha = 114,6 kg/ koeruutu</t>
+  </si>
+  <si>
+    <t>Kaukaan kompostoitu sekaliete: 42,97 t/ha = 94,5 kg/ koeruutu</t>
+  </si>
+  <si>
+    <t>Kaukaan kalkkistabiloitu sekaliete: 50,75 t/ha = 111,7 kg/ koeruutu</t>
+  </si>
+  <si>
+    <t>Lannoitus yhteensä (kg N)</t>
+  </si>
+  <si>
+    <t>1. vuonna</t>
+  </si>
+  <si>
+    <t>Nitraatin määrä (mg/kg)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 23.10.2015</t>
+  </si>
+  <si>
+    <t>Ero vain keväällä lannoitettuun</t>
+  </si>
+  <si>
+    <t>Erot mineraali käsittelyyn HUOM 30 kg enemmän typpeä</t>
+  </si>
+  <si>
+    <t>Ovat tilastollisesti merkitseviä, mutta käsittely vertaukset eroavat typpisisällöltään!</t>
+  </si>
+  <si>
+    <t>KERÄÄJÄKASVI</t>
+  </si>
+  <si>
+    <t>Ovat tilastollisesti merkitseviä, paitsi mineraalilannoituksest toisistaan. Käsittelyt ovat samoja!</t>
+  </si>
+  <si>
+    <t>Ero vain keväällä lannoitettuun (Min)</t>
+  </si>
+  <si>
+    <t>Ero vain keväällä lannoitettuun (C)</t>
+  </si>
+  <si>
+    <t>Ovat tilastollisesti merkitseviä, paitsi mineraalilannoituksest toisistaan ja S3. Käsittelyt ovat samoja!</t>
+  </si>
+  <si>
+    <t>Ei tilastollisesti merkitseviä eroja</t>
+  </si>
+  <si>
+    <t>HIGH SD</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> mean N per ha (kg)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -238,8 +576,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -419,8 +771,32 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -535,8 +911,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -580,12 +980,70 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="43" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="24" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="28" builtinId="38" customBuiltin="1"/>
@@ -626,12 +1084,85 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="43" builtinId="5"/>
     <cellStyle name="Title" xfId="2" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -643,13 +1174,25 @@
 </styleSheet>
 </file>
 
+<file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nitNsd" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Smgsd" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Smg" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:H146" totalsRowShown="0">
-  <autoFilter ref="A2:H146"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A2:I146" totalsRowShown="0">
+  <autoFilter ref="A2:I146"/>
   <sortState ref="A3:H146">
     <sortCondition ref="D2:D146"/>
   </sortState>
-  <tableColumns count="8">
+  <tableColumns count="9">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="kas"/>
     <tableColumn id="3" name="lan"/>
@@ -658,6 +1201,9 @@
     <tableColumn id="6" name="sd" dataCellStyle="Comma"/>
     <tableColumn id="7" name="lower" dataCellStyle="Comma"/>
     <tableColumn id="8" name="upper" dataCellStyle="Comma"/>
+    <tableColumn id="9" name=" mean N per ha (kg)" dataDxfId="0" dataCellStyle="Comma">
+      <calculatedColumnFormula>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -668,10 +1214,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -963,15 +1509,16 @@
   <dimension ref="A2:X146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -996,8 +1543,11 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1022,8 +1572,12 @@
       <c r="H3" s="1">
         <v>9.4328252572188607</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>29.5625</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1048,8 +1602,12 @@
       <c r="H4" s="1">
         <v>7.96302677144475</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>28.1875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>17</v>
       </c>
@@ -1074,8 +1632,12 @@
       <c r="H5" s="1">
         <v>7.6783523876694302</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>23</v>
       </c>
@@ -1100,8 +1662,12 @@
       <c r="H6" s="1">
         <v>9.0651399821446894</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>30.625</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>29</v>
       </c>
@@ -1126,8 +1692,12 @@
       <c r="H7" s="1">
         <v>8.7340310522263902</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>26.4375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>35</v>
       </c>
@@ -1152,8 +1722,12 @@
       <c r="H8" s="1">
         <v>7.23352610520638</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>23.9375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>41</v>
       </c>
@@ -1178,8 +1752,12 @@
       <c r="H9" s="1">
         <v>10.25</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>29.375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>47</v>
       </c>
@@ -1204,8 +1782,12 @@
       <c r="H10" s="1">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>53</v>
       </c>
@@ -1230,8 +1812,12 @@
       <c r="H11" s="1">
         <v>8.7835392999188908</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>27.4375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>59</v>
       </c>
@@ -1256,8 +1842,12 @@
       <c r="H12" s="1">
         <v>10.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>30.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>65</v>
       </c>
@@ -1282,8 +1872,12 @@
       <c r="H13" s="1">
         <v>9.1176489887307692</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>26.0625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>71</v>
       </c>
@@ -1308,8 +1902,12 @@
       <c r="H14" s="1">
         <v>7.5889229723725196</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>77</v>
       </c>
@@ -1334,8 +1932,12 @@
       <c r="H15" s="1">
         <v>10.8452994616207</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>83</v>
       </c>
@@ -1360,8 +1962,12 @@
       <c r="H16" s="1">
         <v>10.185790246046199</v>
       </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I16" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>29.3125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>89</v>
       </c>
@@ -1386,8 +1992,12 @@
       <c r="H17" s="1">
         <v>11.292572892243699</v>
       </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I17" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>30.625</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>95</v>
       </c>
@@ -1412,11 +2022,15 @@
       <c r="H18" s="1">
         <v>13</v>
       </c>
+      <c r="I18" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>32.5</v>
+      </c>
       <c r="X18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>101</v>
       </c>
@@ -1441,8 +2055,12 @@
       <c r="H19" s="1">
         <v>8.7477794214341706</v>
       </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I19" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>25.625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>107</v>
       </c>
@@ -1467,8 +2085,12 @@
       <c r="H20" s="1">
         <v>9.5857864376269006</v>
       </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>113</v>
       </c>
@@ -1493,8 +2115,12 @@
       <c r="H21" s="1">
         <v>10.7679491924311</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I21" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>119</v>
       </c>
@@ -1519,8 +2145,12 @@
       <c r="H22" s="1">
         <v>13.792572892243699</v>
       </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I22" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>36.875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>125</v>
       </c>
@@ -1545,8 +2175,12 @@
       <c r="H23" s="1">
         <v>10.003707521959001</v>
       </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I23" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>131</v>
       </c>
@@ -1571,8 +2205,12 @@
       <c r="H24" s="1">
         <v>10.991694260788201</v>
       </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I24" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>30.625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>137</v>
       </c>
@@ -1597,8 +2235,12 @@
       <c r="H25" s="1">
         <v>7.6334170537154202</v>
       </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I25" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>32.5625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>143</v>
       </c>
@@ -1623,8 +2265,12 @@
       <c r="H26" s="1">
         <v>8.6460613536819508</v>
       </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I26" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>28.5625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1649,8 +2295,12 @@
       <c r="H27" s="1">
         <v>4.3729202710603801</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>12.4375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
@@ -1675,8 +2325,12 @@
       <c r="H28" s="1">
         <v>3.4249999999999998</v>
       </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I28" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>11.4375</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>15</v>
       </c>
@@ -1701,8 +2355,12 @@
       <c r="H29" s="1">
         <v>3.5033445191416202</v>
       </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I29" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>21</v>
       </c>
@@ -1727,8 +2385,12 @@
       <c r="H30" s="1">
         <v>4.2542174872340102</v>
       </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I30" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>11.0625</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -1753,8 +2415,12 @@
       <c r="H31" s="1">
         <v>9.6108953715480805</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="I31" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>29.75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>33</v>
       </c>
@@ -1779,8 +2445,12 @@
       <c r="H32" s="1">
         <v>6.4308117870443402</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>18.9375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>39</v>
       </c>
@@ -1805,8 +2475,12 @@
       <c r="H33" s="1">
         <v>3.8389566420855701</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>11.875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>45</v>
       </c>
@@ -1831,8 +2505,12 @@
       <c r="H34" s="1">
         <v>2.59571264084299</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>10.625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>51</v>
       </c>
@@ -1857,8 +2535,12 @@
       <c r="H35" s="1">
         <v>3.2483347199122199</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>10.625</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>57</v>
       </c>
@@ -1883,8 +2565,12 @@
       <c r="H36" s="1">
         <v>3.51052148043112</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>11.3125</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>63</v>
       </c>
@@ -1909,8 +2595,12 @@
       <c r="H37" s="1">
         <v>5.3729176521604201</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>18.9375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>69</v>
       </c>
@@ -1935,8 +2625,12 @@
       <c r="H38" s="1">
         <v>6.4402241862357101</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>20.375</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>75</v>
       </c>
@@ -1961,8 +2655,12 @@
       <c r="H39" s="1">
         <v>5.0934927093632698</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>81</v>
       </c>
@@ -1987,8 +2685,12 @@
       <c r="H40" s="1">
         <v>3.64006705497667</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>10.1875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>87</v>
       </c>
@@ -2013,8 +2715,12 @@
       <c r="H41" s="1">
         <v>3.3220570703260499</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>10.875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>93</v>
       </c>
@@ -2039,8 +2745,12 @@
       <c r="H42" s="1">
         <v>4.0942561475697996</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>11.875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>99</v>
       </c>
@@ -2065,8 +2775,12 @@
       <c r="H43" s="1">
         <v>7.3484132978469203</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>23.625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>105</v>
       </c>
@@ -2091,8 +2805,12 @@
       <c r="H44" s="1">
         <v>7.0430755339845597</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>20.625</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>111</v>
       </c>
@@ -2117,8 +2835,12 @@
       <c r="H45" s="1">
         <v>3.0617831238763098</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9.5625</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>117</v>
       </c>
@@ -2143,8 +2865,12 @@
       <c r="H46" s="1">
         <v>3.4942561475698</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>10.375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>123</v>
       </c>
@@ -2169,8 +2895,12 @@
       <c r="H47" s="1">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>129</v>
       </c>
@@ -2195,8 +2925,12 @@
       <c r="H48" s="1">
         <v>3.58845400686719</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>10.8125</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>135</v>
       </c>
@@ -2221,8 +2955,12 @@
       <c r="H49" s="1">
         <v>4.0860389820046903</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>141</v>
       </c>
@@ -2247,8 +2985,12 @@
       <c r="H50" s="1">
         <v>4.2078252976789399</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>13.9375</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6</v>
       </c>
@@ -2273,8 +3015,12 @@
       <c r="H51" s="1">
         <v>3.3276084190729498</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>10.3125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>12</v>
       </c>
@@ -2299,8 +3045,12 @@
       <c r="H52" s="1">
         <v>3.1093073856075102</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>18</v>
       </c>
@@ -2325,8 +3075,12 @@
       <c r="H53" s="1">
         <v>2.7424163097209799</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>24</v>
       </c>
@@ -2351,8 +3105,12 @@
       <c r="H54" s="1">
         <v>3.4611805582684401</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>10.875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>30</v>
       </c>
@@ -2377,8 +3135,12 @@
       <c r="H55" s="1">
         <v>2.7877761411665598</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9.5625</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>36</v>
       </c>
@@ -2403,8 +3165,12 @@
       <c r="H56" s="1">
         <v>2.1315612858641901</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>42</v>
       </c>
@@ -2429,8 +3195,12 @@
       <c r="H57" s="1">
         <v>2.19385698693169</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>8.375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>48</v>
       </c>
@@ -2455,8 +3225,12 @@
       <c r="H58" s="1">
         <v>3.03664946858424</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9.8125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>54</v>
       </c>
@@ -2481,8 +3255,12 @@
       <c r="H59" s="1">
         <v>2.9217650730107199</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9.5625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -2507,8 +3285,12 @@
       <c r="H60" s="1">
         <v>3.1645873865263701</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>66</v>
       </c>
@@ -2533,8 +3315,12 @@
       <c r="H61" s="1">
         <v>2.1554700879986401</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>72</v>
       </c>
@@ -2559,8 +3345,12 @@
       <c r="H62" s="1">
         <v>2.0481898304552701</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>78</v>
       </c>
@@ -2585,8 +3375,12 @@
       <c r="H63" s="1">
         <v>2.88519326378084</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>8.9375</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>84</v>
       </c>
@@ -2611,8 +3405,12 @@
       <c r="H64" s="1">
         <v>2.89289321881345</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>90</v>
       </c>
@@ -2637,8 +3435,12 @@
       <c r="H65" s="1">
         <v>2.9818854252131399</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>96</v>
       </c>
@@ -2663,8 +3465,12 @@
       <c r="H66" s="1">
         <v>2.8652573269818</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9.875</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>102</v>
       </c>
@@ -2689,8 +3495,12 @@
       <c r="H67" s="1">
         <v>2.22149768397415</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>7.9375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>108</v>
       </c>
@@ -2715,8 +3525,12 @@
       <c r="H68" s="1">
         <v>2.3172620946911202</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>8.125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>114</v>
       </c>
@@ -2741,8 +3555,12 @@
       <c r="H69" s="1">
         <v>3.0655189949791501</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>10.3125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>120</v>
       </c>
@@ -2767,8 +3585,12 @@
       <c r="H70" s="1">
         <v>3.0507531487308501</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>12.8125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>126</v>
       </c>
@@ -2793,8 +3615,12 @@
       <c r="H71" s="1">
         <v>3.2992429452713901</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9.625</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>132</v>
       </c>
@@ -2819,8 +3645,12 @@
       <c r="H72" s="1">
         <v>2.60385186031843</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>138</v>
       </c>
@@ -2845,8 +3675,12 @@
       <c r="H73" s="1">
         <v>2.89501655647293</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9.125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>144</v>
       </c>
@@ -2871,8 +3705,12 @@
       <c r="H74" s="1">
         <v>2.9073850226823601</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9.375</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -2897,8 +3735,12 @@
       <c r="H75" s="1">
         <v>7.7100687297398096</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>24.125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>10</v>
       </c>
@@ -2923,8 +3765,12 @@
       <c r="H76" s="1">
         <v>4.6251984220725397</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>16.8125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -2949,8 +3795,12 @@
       <c r="H77" s="1">
         <v>7.1103764012142001</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>20.875</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>22</v>
       </c>
@@ -2975,8 +3825,12 @@
       <c r="H78" s="1">
         <v>7.5469555031724198</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>23.0625</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>28</v>
       </c>
@@ -3001,8 +3855,12 @@
       <c r="H79" s="1">
         <v>7.0154946296731397</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>23.6875</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>34</v>
       </c>
@@ -3027,8 +3885,12 @@
       <c r="H80" s="1">
         <v>6.9763075247622899</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>23.8125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>40</v>
       </c>
@@ -3053,8 +3915,12 @@
       <c r="H81" s="1">
         <v>6.0788607849989198</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>21.9375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>46</v>
       </c>
@@ -3079,8 +3945,12 @@
       <c r="H82" s="1">
         <v>6.47477107378913</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>21.875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>52</v>
       </c>
@@ -3105,8 +3975,12 @@
       <c r="H83" s="1">
         <v>5.7254735103271202</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>25.3125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>58</v>
       </c>
@@ -3131,8 +4005,12 @@
       <c r="H84" s="1">
         <v>9.0325699910723394</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>26.5625</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>64</v>
       </c>
@@ -3157,8 +4035,12 @@
       <c r="H85" s="1">
         <v>9.6109186718592508</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>28.1875</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>70</v>
       </c>
@@ -3183,8 +4065,12 @@
       <c r="H86" s="1">
         <v>10.1543741905761</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>76</v>
       </c>
@@ -3209,8 +4095,12 @@
       <c r="H87" s="1">
         <v>10.048437881283601</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>33.125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>82</v>
       </c>
@@ -3235,8 +4125,12 @@
       <c r="H88" s="1">
         <v>6.3307981493554397</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3261,8 +4155,12 @@
       <c r="H89" s="1">
         <v>4.8426576294911197</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>94</v>
       </c>
@@ -3287,8 +4185,12 @@
       <c r="H90" s="1">
         <v>9.0942235935955793</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>25.3125</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>100</v>
       </c>
@@ -3313,8 +4215,12 @@
       <c r="H91" s="1">
         <v>10.050000000000001</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>27.375</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>106</v>
       </c>
@@ -3339,8 +4245,12 @@
       <c r="H92" s="1">
         <v>11.1835034190723</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>112</v>
       </c>
@@ -3365,8 +4275,12 @@
       <c r="H93" s="1">
         <v>8.1554951699739107</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>118</v>
       </c>
@@ -3391,8 +4305,12 @@
       <c r="H94" s="1">
         <v>5.7181239886733497</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>124</v>
       </c>
@@ -3417,8 +4335,12 @@
       <c r="H95" s="1">
         <v>3.2626741523627301</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>130</v>
       </c>
@@ -3443,8 +4365,12 @@
       <c r="H96" s="1">
         <v>3.1508784618048802</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>19.4375</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>136</v>
       </c>
@@ -3469,8 +4395,12 @@
       <c r="H97" s="1">
         <v>9.1329696789725805</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>31.1875</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>142</v>
       </c>
@@ -3495,8 +4425,12 @@
       <c r="H98" s="1">
         <v>8.8754538361651392</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -3521,8 +4455,12 @@
       <c r="H99" s="1">
         <v>4.9372578065032799</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>13.6875</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>8</v>
       </c>
@@ -3547,8 +4485,12 @@
       <c r="H100" s="1">
         <v>2.1522902098764201</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>9.8125</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>14</v>
       </c>
@@ -3573,8 +4515,12 @@
       <c r="H101" s="1">
         <v>3.3054057559115799</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>12.0625</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>20</v>
       </c>
@@ -3599,8 +4545,12 @@
       <c r="H102" s="1">
         <v>3.4408011576602799</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>11.8125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>26</v>
       </c>
@@ -3625,8 +4575,12 @@
       <c r="H103" s="1">
         <v>13.8542486889354</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>41.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>32</v>
       </c>
@@ -3651,8 +4605,12 @@
       <c r="H104" s="1">
         <v>9.4753788748764691</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>25.75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>38</v>
       </c>
@@ -3677,8 +4635,12 @@
       <c r="H105" s="1">
         <v>4.2355359642845301</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>44</v>
       </c>
@@ -3703,8 +4665,12 @@
       <c r="H106" s="1">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>50</v>
       </c>
@@ -3729,8 +4695,12 @@
       <c r="H107" s="1">
         <v>4.0563588336743699</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>15.375</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>56</v>
       </c>
@@ -3755,8 +4725,12 @@
       <c r="H108" s="1">
         <v>3.2198765502653601</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>62</v>
       </c>
@@ -3781,8 +4755,12 @@
       <c r="H109" s="1">
         <v>11.75</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>33.125</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>68</v>
       </c>
@@ -3807,8 +4785,12 @@
       <c r="H110" s="1">
         <v>9.3553390343909797</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>29.625</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>74</v>
       </c>
@@ -3833,8 +4815,12 @@
       <c r="H111" s="1">
         <v>5.2463038858849398</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>15.375</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>80</v>
       </c>
@@ -3859,8 +4845,12 @@
       <c r="H112" s="1">
         <v>4.1704369859012997</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>86</v>
       </c>
@@ -3885,8 +4875,12 @@
       <c r="H113" s="1">
         <v>3.0855721291616098</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>28.6875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>92</v>
       </c>
@@ -3911,8 +4905,12 @@
       <c r="H114" s="1">
         <v>4.2554057559115801</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>14.4375</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>98</v>
       </c>
@@ -3937,8 +4935,12 @@
       <c r="H115" s="1">
         <v>13.8452994616207</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>104</v>
       </c>
@@ -3963,8 +4965,12 @@
       <c r="H116" s="1">
         <v>10.3870921868737</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>31.875</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>110</v>
       </c>
@@ -3989,8 +4995,12 @@
       <c r="H117" s="1">
         <v>4.35549516997391</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -4015,8 +5025,12 @@
       <c r="H118" s="1">
         <v>1.9304835711716199</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>13.9375</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>122</v>
       </c>
@@ -4041,8 +5055,12 @@
       <c r="H119" s="1">
         <v>5.58570305513999</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>14.4375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>128</v>
       </c>
@@ -4067,8 +5085,12 @@
       <c r="H120" s="1">
         <v>4.0575098082120702</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>17.3125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>134</v>
       </c>
@@ -4093,8 +5115,12 @@
       <c r="H121" s="1">
         <v>4.2273858426085003</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>19.625</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>140</v>
       </c>
@@ -4119,8 +5145,12 @@
       <c r="H122" s="1">
         <v>5.3229810332000804</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>17.4375</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
@@ -4145,8 +5175,12 @@
       <c r="H123" s="1">
         <v>5.9264401481308999</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>7</v>
       </c>
@@ -4171,8 +5205,12 @@
       <c r="H124" s="1">
         <v>5.1345108131362904</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>15.5625</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>13</v>
       </c>
@@ -4197,8 +5235,12 @@
       <c r="H125" s="1">
         <v>5.9550543757648002</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>23.125</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>19</v>
       </c>
@@ -4223,8 +5265,12 @@
       <c r="H126" s="1">
         <v>4.7575669485925403</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>25</v>
       </c>
@@ -4249,8 +5295,12 @@
       <c r="H127" s="1">
         <v>14.597932652175</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>53.125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>31</v>
       </c>
@@ -4275,8 +5325,12 @@
       <c r="H128" s="1">
         <v>8.3865218504846695</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>26.625</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>37</v>
       </c>
@@ -4301,8 +5355,12 @@
       <c r="H129" s="1">
         <v>4.7212290980568801</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>18.4375</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>43</v>
       </c>
@@ -4327,8 +5385,12 @@
       <c r="H130" s="1">
         <v>4.4959182994012599</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>17.625</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>49</v>
       </c>
@@ -4353,8 +5415,12 @@
       <c r="H131" s="1">
         <v>4.9117831238763099</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>14.1875</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>55</v>
       </c>
@@ -4379,8 +5445,12 @@
       <c r="H132" s="1">
         <v>3.9588038169944602</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>15.0625</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>61</v>
       </c>
@@ -4405,8 +5475,12 @@
       <c r="H133" s="1">
         <v>10.0560797112241</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>67</v>
       </c>
@@ -4431,8 +5505,12 @@
       <c r="H134" s="1">
         <v>8.7949249810935495</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>27.125</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>73</v>
       </c>
@@ -4457,8 +5535,12 @@
       <c r="H135" s="1">
         <v>6.0990198903769199</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>79</v>
       </c>
@@ -4483,8 +5565,12 @@
       <c r="H136" s="1">
         <v>6.5033445191416197</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>85</v>
       </c>
@@ -4509,8 +5595,12 @@
       <c r="H137" s="1">
         <v>6.5448393729725103</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>18.4375</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>91</v>
       </c>
@@ -4535,8 +5625,12 @@
       <c r="H138" s="1">
         <v>6.2053288453877302</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>16.875</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>97</v>
       </c>
@@ -4561,8 +5655,12 @@
       <c r="H139" s="1">
         <v>10.1742581416494</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>103</v>
       </c>
@@ -4587,8 +5685,12 @@
       <c r="H140" s="1">
         <v>8.4209015953156392</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>109</v>
       </c>
@@ -4613,8 +5715,12 @@
       <c r="H141" s="1">
         <v>3.9968070673576102</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>12.6875</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>115</v>
       </c>
@@ -4639,8 +5745,12 @@
       <c r="H142" s="1">
         <v>3.6227096447651101</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>121</v>
       </c>
@@ -4665,8 +5775,12 @@
       <c r="H143" s="1">
         <v>4.0789306569001997</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>12.3125</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>127</v>
       </c>
@@ -4691,8 +5805,12 @@
       <c r="H144" s="1">
         <v>4.3836577224373103</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>14.4375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>133</v>
       </c>
@@ -4717,8 +5835,12 @@
       <c r="H145" s="1">
         <v>6.4396867562952398</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>21.1875</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>139</v>
       </c>
@@ -4742,6 +5864,10 @@
       </c>
       <c r="H146" s="1">
         <v>6.49064151069246</v>
+      </c>
+      <c r="I146" s="1">
+        <f>Table1[[#This Row],[mean]]*'2015'!$S$41/1000</f>
+        <v>18.9375</v>
       </c>
     </row>
   </sheetData>
@@ -4750,4 +5876,4731 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA118"/>
+  <sheetViews>
+    <sheetView topLeftCell="F31" workbookViewId="0">
+      <selection activeCell="U46" sqref="U46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="13" width="8.6640625" customWidth="1"/>
+    <col min="18" max="18" width="13" customWidth="1"/>
+    <col min="23" max="23" width="16.5546875" customWidth="1"/>
+    <col min="29" max="29" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="C3" s="6">
+        <v>7.375</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="E3" s="6">
+        <v>5.0750000000000002</v>
+      </c>
+      <c r="F3" s="6">
+        <v>5.4749999999999996</v>
+      </c>
+      <c r="G3" s="6">
+        <v>6</v>
+      </c>
+      <c r="H3" s="6">
+        <v>6.15</v>
+      </c>
+      <c r="I3" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="J3" s="6">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="K3" s="6">
+        <v>4.75</v>
+      </c>
+      <c r="L3" s="6">
+        <v>5.625</v>
+      </c>
+      <c r="M3" s="6">
+        <v>3.8250000000000002</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6.2249999999999996</v>
+      </c>
+      <c r="C4" s="6">
+        <v>7.05</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6">
+        <v>5.625</v>
+      </c>
+      <c r="F4" s="6">
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="G4" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="H4" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="I4" s="6">
+        <v>5.5750000000000002</v>
+      </c>
+      <c r="J4" s="6">
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="K4" s="6">
+        <v>4.25</v>
+      </c>
+      <c r="L4" s="6">
+        <v>4.0750000000000002</v>
+      </c>
+      <c r="M4" s="6">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="O4" s="8"/>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="6">
+        <v>9.25</v>
+      </c>
+      <c r="C5" s="6">
+        <v>5.6749999999999998</v>
+      </c>
+      <c r="D5" s="6">
+        <v>7.375</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4.9249999999999998</v>
+      </c>
+      <c r="F5" s="6">
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="G5" s="6">
+        <v>6.15</v>
+      </c>
+      <c r="H5" s="6">
+        <v>11.475</v>
+      </c>
+      <c r="I5" s="6">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="J5" s="6">
+        <v>4</v>
+      </c>
+      <c r="K5" s="6">
+        <v>4.25</v>
+      </c>
+      <c r="L5" s="6">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="M5" s="6">
+        <v>4</v>
+      </c>
+      <c r="O5" s="9"/>
+      <c r="P5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="C6" s="6">
+        <v>6.0250000000000004</v>
+      </c>
+      <c r="D6" s="6">
+        <v>6.75</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="G6" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="H6" s="6">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="I6" s="6">
+        <v>6.9249999999999998</v>
+      </c>
+      <c r="J6" s="6">
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="K6" s="6">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="L6" s="6">
+        <v>4.75</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4.3250000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="6">
+        <v>21.25</v>
+      </c>
+      <c r="C7" s="6">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6">
+        <v>12</v>
+      </c>
+      <c r="E7" s="6">
+        <v>8.4749999999999996</v>
+      </c>
+      <c r="F7" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="G7" s="6">
+        <v>13.25</v>
+      </c>
+      <c r="H7" s="6">
+        <v>15</v>
+      </c>
+      <c r="I7" s="6">
+        <v>7.85</v>
+      </c>
+      <c r="J7" s="6">
+        <v>11.9</v>
+      </c>
+      <c r="K7" s="6">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="L7" s="6">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="M7" s="6">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10.65</v>
+      </c>
+      <c r="C8" s="6">
+        <v>10.85</v>
+      </c>
+      <c r="D8" s="6">
+        <v>11.6</v>
+      </c>
+      <c r="E8" s="6">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="F8" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="G8" s="6">
+        <v>11.85</v>
+      </c>
+      <c r="H8" s="6">
+        <v>12.75</v>
+      </c>
+      <c r="I8" s="6">
+        <v>6.9749999999999996</v>
+      </c>
+      <c r="J8" s="6">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="K8" s="6">
+        <v>8.15</v>
+      </c>
+      <c r="L8" s="6">
+        <v>8.25</v>
+      </c>
+      <c r="M8" s="6">
+        <v>5.5750000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1.3735598518690999</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2.6537709019431199</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1.7009801096230801</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.07819293264239</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0.53774219349672203</v>
+      </c>
+      <c r="G10" s="6">
+        <v>1.7644640357154699</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.90369611411506401</v>
+      </c>
+      <c r="I10" s="6">
+        <v>2.04450483002609</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0.60207972893961503</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0.91104335791443003</v>
+      </c>
+      <c r="L10" s="6">
+        <v>0.53150729063673297</v>
+      </c>
+      <c r="M10" s="6">
+        <v>0.76321687612368705</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="6">
+        <v>1.0904891868637101</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2.55408170059874</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.49665548085837802</v>
+      </c>
+      <c r="E11" s="6">
+        <v>2.0022903552348899</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1.77270979012358</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6">
+        <v>1.0295630140987</v>
+      </c>
+      <c r="I11" s="6">
+        <v>3.6445164288283798</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1.65428735915701</v>
+      </c>
+      <c r="L11" s="6">
+        <v>0.43493294502333002</v>
+      </c>
+      <c r="M11" s="6">
+        <v>0.65574385243019995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3.2949456242352002</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0.76321687612368805</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.83016062702748505</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.84606934309980397</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1.51959424408842</v>
+      </c>
+      <c r="G12" s="6">
+        <v>2.09364116632563</v>
+      </c>
+      <c r="H12" s="6">
+        <v>8.3894278708383894</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0.189296944860009</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0.49665548085837802</v>
+      </c>
+      <c r="K12" s="6">
+        <v>1.0016652800877801</v>
+      </c>
+      <c r="L12" s="6">
+        <v>1.02794292967395</v>
+      </c>
+      <c r="M12" s="6">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1.04243305140746</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2.0661961830055402</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.544671154612273</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1.39134227756269</v>
+      </c>
+      <c r="F13" s="6">
+        <v>1.2841988423397199</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1.0801234497346399</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.51959424408842</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2.8674901917879301</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0.17078251276599299</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1.0144785195688799</v>
+      </c>
+      <c r="L13" s="6">
+        <v>0.65574385243019995</v>
+      </c>
+      <c r="M13" s="6">
+        <v>0.73654599313281199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6">
+        <v>6.6520673478250396</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2.9439202887759501</v>
+      </c>
+      <c r="D14" s="6">
+        <v>1.82574185835055</v>
+      </c>
+      <c r="E14" s="6">
+        <v>2.0353132437047599</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2.6457513110645898</v>
+      </c>
+      <c r="G14" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.1547005383792499</v>
+      </c>
+      <c r="I14" s="6">
+        <v>3.6226141573914998</v>
+      </c>
+      <c r="J14" s="6">
+        <v>2.2891046284519199</v>
+      </c>
+      <c r="K14" s="6">
+        <v>2.2020823478395801</v>
+      </c>
+      <c r="L14" s="6">
+        <v>2.1015867021530799</v>
+      </c>
+      <c r="M14" s="6">
+        <v>2.5139610179953098</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="6">
+        <v>2.26347814951533</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2.0550750189064502</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3.17909840468436</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.08435848930754</v>
+      </c>
+      <c r="F15" s="6">
+        <v>0.82462112512353203</v>
+      </c>
+      <c r="G15" s="6">
+        <v>2.49466096560902</v>
+      </c>
+      <c r="H15" s="6">
+        <v>2.3629078131262999</v>
+      </c>
+      <c r="I15" s="6">
+        <v>1.6520189667999201</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1.14418821295566</v>
+      </c>
+      <c r="K15" s="6">
+        <v>1.70977581376429</v>
+      </c>
+      <c r="L15" s="6">
+        <v>1.2069244660154499</v>
+      </c>
+      <c r="M15" s="6">
+        <v>1.3671747023210601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6">
+        <v>61.25</v>
+      </c>
+      <c r="C19" s="6">
+        <v>53.75</v>
+      </c>
+      <c r="D19" s="6">
+        <v>52.75</v>
+      </c>
+      <c r="E19" s="6">
+        <v>62.5</v>
+      </c>
+      <c r="F19" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="G19" s="6">
+        <v>55.5</v>
+      </c>
+      <c r="H19" s="6">
+        <v>50.25</v>
+      </c>
+      <c r="I19" s="6">
+        <v>49.25</v>
+      </c>
+      <c r="J19" s="6">
+        <v>54.25</v>
+      </c>
+      <c r="K19" s="6">
+        <v>50.5</v>
+      </c>
+      <c r="L19" s="6">
+        <v>48.75</v>
+      </c>
+      <c r="M19" s="6">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="6">
+        <v>49.25</v>
+      </c>
+      <c r="C20" s="6">
+        <v>47.5</v>
+      </c>
+      <c r="D20" s="6">
+        <v>48.75</v>
+      </c>
+      <c r="E20" s="6">
+        <v>51.25</v>
+      </c>
+      <c r="F20" s="6">
+        <v>48</v>
+      </c>
+      <c r="G20" s="6">
+        <v>50.25</v>
+      </c>
+      <c r="H20" s="6">
+        <v>47.5</v>
+      </c>
+      <c r="I20" s="6">
+        <v>62.5</v>
+      </c>
+      <c r="J20" s="6">
+        <v>43</v>
+      </c>
+      <c r="K20" s="6">
+        <v>51</v>
+      </c>
+      <c r="L20" s="6">
+        <v>44.25</v>
+      </c>
+      <c r="M20" s="6">
+        <v>48.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="C21" s="6">
+        <v>39.5</v>
+      </c>
+      <c r="D21" s="6">
+        <v>32.25</v>
+      </c>
+      <c r="E21" s="6">
+        <v>41.75</v>
+      </c>
+      <c r="F21" s="6">
+        <v>29.25</v>
+      </c>
+      <c r="G21" s="6">
+        <v>34.5</v>
+      </c>
+      <c r="H21" s="6">
+        <v>32.25</v>
+      </c>
+      <c r="I21" s="6">
+        <v>37.75</v>
+      </c>
+      <c r="J21" s="6">
+        <v>31.25</v>
+      </c>
+      <c r="K21" s="6">
+        <v>33.25</v>
+      </c>
+      <c r="L21" s="6">
+        <v>28.75</v>
+      </c>
+      <c r="M21" s="6">
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="6">
+        <v>49.75</v>
+      </c>
+      <c r="C22" s="6">
+        <v>50.75</v>
+      </c>
+      <c r="D22" s="6">
+        <v>40.5</v>
+      </c>
+      <c r="E22" s="6">
+        <v>58</v>
+      </c>
+      <c r="F22" s="6">
+        <v>45</v>
+      </c>
+      <c r="G22" s="6">
+        <v>47.75</v>
+      </c>
+      <c r="H22" s="6">
+        <v>38.5</v>
+      </c>
+      <c r="I22" s="6">
+        <v>43</v>
+      </c>
+      <c r="J22" s="6">
+        <v>39.75</v>
+      </c>
+      <c r="K22" s="6">
+        <v>44.5</v>
+      </c>
+      <c r="L22" s="6">
+        <v>38.25</v>
+      </c>
+      <c r="M22" s="6">
+        <v>45.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="6">
+        <v>33.75</v>
+      </c>
+      <c r="C23" s="6">
+        <v>26</v>
+      </c>
+      <c r="D23" s="6">
+        <v>27.25</v>
+      </c>
+      <c r="E23" s="6">
+        <v>34.25</v>
+      </c>
+      <c r="F23" s="6">
+        <v>26.75</v>
+      </c>
+      <c r="G23" s="6">
+        <v>25.75</v>
+      </c>
+      <c r="H23" s="6">
+        <v>23.75</v>
+      </c>
+      <c r="I23" s="6">
+        <v>28</v>
+      </c>
+      <c r="J23" s="6">
+        <v>29.25</v>
+      </c>
+      <c r="K23" s="6">
+        <v>23.25</v>
+      </c>
+      <c r="L23" s="6">
+        <v>25.75</v>
+      </c>
+      <c r="M23" s="6">
+        <v>26.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="6">
+        <v>28.5</v>
+      </c>
+      <c r="C24" s="6">
+        <v>30</v>
+      </c>
+      <c r="D24" s="6">
+        <v>26.5</v>
+      </c>
+      <c r="E24" s="6">
+        <v>39.75</v>
+      </c>
+      <c r="F24" s="6">
+        <v>25.25</v>
+      </c>
+      <c r="G24" s="6">
+        <v>28</v>
+      </c>
+      <c r="H24" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="I24" s="6">
+        <v>35.25</v>
+      </c>
+      <c r="J24" s="6">
+        <v>25.75</v>
+      </c>
+      <c r="K24" s="6">
+        <v>24.75</v>
+      </c>
+      <c r="L24" s="6">
+        <v>24.5</v>
+      </c>
+      <c r="M24" s="6">
+        <v>37.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="6">
+        <v>15.5429512427123</v>
+      </c>
+      <c r="C26" s="6">
+        <v>16.378339354159198</v>
+      </c>
+      <c r="D26" s="6">
+        <v>9.3229108472979991</v>
+      </c>
+      <c r="E26" s="6">
+        <v>20.273134932713301</v>
+      </c>
+      <c r="F26" s="6">
+        <v>8.1853527718724504</v>
+      </c>
+      <c r="G26" s="6">
+        <v>19.807406022327399</v>
+      </c>
+      <c r="H26" s="6">
+        <v>7.0415433914258703</v>
+      </c>
+      <c r="I26" s="6">
+        <v>13.0989821487524</v>
+      </c>
+      <c r="J26" s="6">
+        <v>16.760568804985901</v>
+      </c>
+      <c r="K26" s="6">
+        <v>4.5092497528228899</v>
+      </c>
+      <c r="L26" s="6">
+        <v>4.1932485418030403</v>
+      </c>
+      <c r="M26" s="6">
+        <v>6.4549722436790304</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+      <c r="B27" s="6">
+        <v>9.8446262837482408</v>
+      </c>
+      <c r="C27" s="6">
+        <v>13.329166015421499</v>
+      </c>
+      <c r="D27" s="6">
+        <v>11.146748404804001</v>
+      </c>
+      <c r="E27" s="6">
+        <v>12.3119183449751</v>
+      </c>
+      <c r="F27" s="6">
+        <v>5.6568542494923797</v>
+      </c>
+      <c r="G27" s="6">
+        <v>21.8536800867344</v>
+      </c>
+      <c r="H27" s="6">
+        <v>8.2663978450915003</v>
+      </c>
+      <c r="I27" s="6">
+        <v>25.0931597585212</v>
+      </c>
+      <c r="J27" s="6">
+        <v>4.3204937989385703</v>
+      </c>
+      <c r="K27" s="6">
+        <v>23.8467328300266</v>
+      </c>
+      <c r="L27" s="6">
+        <v>7.1355915428692196</v>
+      </c>
+      <c r="M27" s="6">
+        <v>8.5391256382996694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="6">
+        <v>3.41565025531987</v>
+      </c>
+      <c r="C28" s="6">
+        <v>10.214368964029701</v>
+      </c>
+      <c r="D28" s="6">
+        <v>6.8007352543677202</v>
+      </c>
+      <c r="E28" s="6">
+        <v>11.528949070347499</v>
+      </c>
+      <c r="F28" s="6">
+        <v>1.25830573921179</v>
+      </c>
+      <c r="G28" s="6">
+        <v>14.3874945699382</v>
+      </c>
+      <c r="H28" s="6">
+        <v>2.8722813232690099</v>
+      </c>
+      <c r="I28" s="6">
+        <v>10.8742815854658</v>
+      </c>
+      <c r="J28" s="6">
+        <v>3.8622100754188202</v>
+      </c>
+      <c r="K28" s="6">
+        <v>12.7638813323639</v>
+      </c>
+      <c r="L28" s="6">
+        <v>2.0615528128088298</v>
+      </c>
+      <c r="M28" s="6">
+        <v>17.935068069752798</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="6">
+        <v>20.221688027132299</v>
+      </c>
+      <c r="C29" s="6">
+        <v>20.039544239661101</v>
+      </c>
+      <c r="D29" s="6">
+        <v>11.2694276695846</v>
+      </c>
+      <c r="E29" s="6">
+        <v>14.3527000944073</v>
+      </c>
+      <c r="F29" s="6">
+        <v>13.589211407093</v>
+      </c>
+      <c r="G29" s="6">
+        <v>14.1745076340121</v>
+      </c>
+      <c r="H29" s="6">
+        <v>3.7859388972001802</v>
+      </c>
+      <c r="I29" s="6">
+        <v>8.2056890833941107</v>
+      </c>
+      <c r="J29" s="6">
+        <v>4.5734742446707504</v>
+      </c>
+      <c r="K29" s="6">
+        <v>12.2610494384997</v>
+      </c>
+      <c r="L29" s="6">
+        <v>5.2519837521962396</v>
+      </c>
+      <c r="M29" s="6">
+        <v>17.895530168173298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="6">
+        <v>8.4606934309980399</v>
+      </c>
+      <c r="C30" s="6">
+        <v>8.2462112512353194</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5.5602757725374303</v>
+      </c>
+      <c r="E30" s="6">
+        <v>17.783419243778699</v>
+      </c>
+      <c r="F30" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="G30" s="6">
+        <v>6.9462219947249002</v>
+      </c>
+      <c r="H30" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="I30" s="6">
+        <v>8.1649658092772608</v>
+      </c>
+      <c r="J30" s="6">
+        <v>4.3493294502333004</v>
+      </c>
+      <c r="K30" s="6">
+        <v>4.2720018726587696</v>
+      </c>
+      <c r="L30" s="6">
+        <v>4.1932485418030403</v>
+      </c>
+      <c r="M30" s="6">
+        <v>7.8049129826453996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="6">
+        <v>3.6968455021364699</v>
+      </c>
+      <c r="C31" s="6">
+        <v>12.7279220613579</v>
+      </c>
+      <c r="D31" s="6">
+        <v>4.79583152331272</v>
+      </c>
+      <c r="E31" s="6">
+        <v>21.868927728629</v>
+      </c>
+      <c r="F31" s="6">
+        <v>2.2173557826083501</v>
+      </c>
+      <c r="G31" s="6">
+        <v>13.4660065844828</v>
+      </c>
+      <c r="H31" s="6">
+        <v>2.88675134594813</v>
+      </c>
+      <c r="I31" s="6">
+        <v>14.0801278403287</v>
+      </c>
+      <c r="J31" s="6">
+        <v>3.0956959368344501</v>
+      </c>
+      <c r="K31" s="6">
+        <v>8.05708797684788</v>
+      </c>
+      <c r="L31" s="6">
+        <v>2.08166599946613</v>
+      </c>
+      <c r="M31" s="6">
+        <v>21.731313812100701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B37" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37">
+        <v>7.3</v>
+      </c>
+      <c r="D37">
+        <v>6.2249999999999996</v>
+      </c>
+      <c r="E37">
+        <v>9.25</v>
+      </c>
+      <c r="F37">
+        <v>5.8</v>
+      </c>
+      <c r="G37">
+        <v>21.25</v>
+      </c>
+      <c r="H37">
+        <v>10.65</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="C38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P38" t="s">
+        <v>48</v>
+      </c>
+      <c r="S38">
+        <v>20</v>
+      </c>
+      <c r="T38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>7.3</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <f>C$37/$A39</f>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" ref="D39:H44" si="0">D$37/$A39</f>
+        <v>0.85273972602739723</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>1.2671232876712328</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0.79452054794520544</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>2.9109589041095889</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>1.4589041095890412</v>
+      </c>
+      <c r="P39" t="s">
+        <v>50</v>
+      </c>
+      <c r="S39">
+        <f>100*100</f>
+        <v>10000</v>
+      </c>
+      <c r="T39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>6.2249999999999996</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40">
+        <f t="shared" ref="C40:C44" si="1">C$37/$A40</f>
+        <v>1.172690763052209</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.4859437751004017</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0.93172690763052213</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>3.4136546184738958</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>1.7108433734939761</v>
+      </c>
+      <c r="P40" t="s">
+        <v>52</v>
+      </c>
+      <c r="S40">
+        <v>1.25</v>
+      </c>
+      <c r="T40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>9.25</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>0.78918918918918912</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.67297297297297298</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0.62702702702702706</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>2.2972972972972974</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>1.1513513513513514</v>
+      </c>
+      <c r="P41" t="s">
+        <v>54</v>
+      </c>
+      <c r="S41">
+        <f>S38*S39*S40/100</f>
+        <v>2500</v>
+      </c>
+      <c r="T41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>5.8</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>1.2586206896551724</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>1.0732758620689655</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="0"/>
+        <v>1.5948275862068966</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>3.6637931034482758</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>1.8362068965517242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>21.25</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>0.34352941176470586</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.2929411764705882</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="0"/>
+        <v>0.43529411764705883</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0.27294117647058824</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="0"/>
+        <v>0.50117647058823533</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>10.65</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>0.68544600938967137</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.58450704225352113</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="0"/>
+        <v>0.86854460093896713</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0.54460093896713613</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>1.9953051643192488</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="P44" t="s">
+        <v>25</v>
+      </c>
+      <c r="S44">
+        <v>10.65</v>
+      </c>
+      <c r="T44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="P45" t="s">
+        <v>57</v>
+      </c>
+      <c r="S45">
+        <f>S41*S44*1000</f>
+        <v>26625000</v>
+      </c>
+      <c r="T45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B46" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="s">
+        <v>61</v>
+      </c>
+      <c r="S46">
+        <f>S45/1000/1000</f>
+        <v>26.625</v>
+      </c>
+      <c r="T46" t="s">
+        <v>62</v>
+      </c>
+      <c r="U46">
+        <f>S44*S41/1000</f>
+        <v>26.625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="15">
+        <f>((C37-$A$44)/$A$44)</f>
+        <v>-0.31455399061032868</v>
+      </c>
+      <c r="D47" s="15">
+        <f t="shared" ref="D47:H47" si="2">((D37-$A$44)/$A$44)</f>
+        <v>-0.41549295774647893</v>
+      </c>
+      <c r="E47" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.1314553990610329</v>
+      </c>
+      <c r="F47" s="15">
+        <f t="shared" si="2"/>
+        <v>-0.45539906103286387</v>
+      </c>
+      <c r="G47" s="15">
+        <f t="shared" si="2"/>
+        <v>0.99530516431924876</v>
+      </c>
+      <c r="H47" s="15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I47" s="16">
+        <f>AVERAGE(C47:F47)</f>
+        <v>-0.32922535211267612</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B48" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" s="15">
+        <f>((C37-$A$43)/$A$43)</f>
+        <v>-0.65647058823529414</v>
+      </c>
+      <c r="D48" s="15">
+        <f t="shared" ref="D48:H48" si="3">((D37-$A$43)/$A$43)</f>
+        <v>-0.70705882352941174</v>
+      </c>
+      <c r="E48" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.56470588235294117</v>
+      </c>
+      <c r="F48" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.72705882352941176</v>
+      </c>
+      <c r="G48" s="15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="15">
+        <f t="shared" si="3"/>
+        <v>-0.49882352941176467</v>
+      </c>
+      <c r="I48" s="16">
+        <f>AVERAGE(C48:F48)</f>
+        <v>-0.6638235294117647</v>
+      </c>
+      <c r="J48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B51" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C51">
+        <v>5.4749999999999996</v>
+      </c>
+      <c r="D51">
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="E51">
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="F51">
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="G51">
+        <v>16.5</v>
+      </c>
+      <c r="H51">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="C52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>5.4749999999999996</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <f>C$51/$A53</f>
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <f>D$51/$A53</f>
+        <v>0.71689497716894979</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ref="E53:H53" si="4">E$51/$A53</f>
+        <v>0.88127853881278551</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="4"/>
+        <v>0.86301369863013699</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>3.0136986301369864</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="4"/>
+        <v>1.8812785388127857</v>
+      </c>
+      <c r="S53" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="U53" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="W53" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="X53" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA53" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C54">
+        <f t="shared" ref="C54:H58" si="5">C$51/$A54</f>
+        <v>1.394904458598726</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="5"/>
+        <v>1.229299363057325</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="5"/>
+        <v>1.2038216560509554</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="5"/>
+        <v>4.2038216560509554</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="5"/>
+        <v>2.6242038216560513</v>
+      </c>
+      <c r="P54" t="s">
+        <v>70</v>
+      </c>
+      <c r="R54" t="s">
+        <v>45</v>
+      </c>
+      <c r="S54">
+        <f>$S$41*A44/1000</f>
+        <v>26.625</v>
+      </c>
+      <c r="U54" s="1">
+        <f>S54-W54</f>
+        <v>8.765625</v>
+      </c>
+      <c r="W54" s="1">
+        <f>$S$41*Y54/1000</f>
+        <v>17.859375</v>
+      </c>
+      <c r="X54" s="15">
+        <f>1-(W54/S54)</f>
+        <v>0.32922535211267601</v>
+      </c>
+      <c r="Y54" s="1">
+        <f>AVERAGE(C37:F37)</f>
+        <v>7.1437499999999998</v>
+      </c>
+      <c r="AA54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="5"/>
+        <v>1.1347150259067356</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="5"/>
+        <v>0.81347150259067347</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="5"/>
+        <v>0.97927461139896366</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="5"/>
+        <v>3.4196891191709842</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="5"/>
+        <v>2.1347150259067358</v>
+      </c>
+      <c r="P55" t="s">
+        <v>71</v>
+      </c>
+      <c r="R55" t="s">
+        <v>63</v>
+      </c>
+      <c r="S55">
+        <f>$S$41*A58/1000</f>
+        <v>25.75</v>
+      </c>
+      <c r="U55" s="1">
+        <f>S55-W55</f>
+        <v>13.906250000000002</v>
+      </c>
+      <c r="W55" s="1">
+        <f t="shared" ref="W55:W56" si="6">$S$41*Y55/1000</f>
+        <v>11.843749999999998</v>
+      </c>
+      <c r="X55" s="15">
+        <f>1-(W55/S55)</f>
+        <v>0.54004854368932054</v>
+      </c>
+      <c r="Y55" s="1">
+        <f>AVERAGE(C51:F51)</f>
+        <v>4.7374999999999989</v>
+      </c>
+      <c r="AA55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="5"/>
+        <v>1.1587301587301588</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="5"/>
+        <v>0.8306878306878307</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="5"/>
+        <v>1.0211640211640214</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="5"/>
+        <v>3.4920634920634925</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="5"/>
+        <v>2.17989417989418</v>
+      </c>
+      <c r="P56" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R56" t="s">
+        <v>72</v>
+      </c>
+      <c r="S56">
+        <f>$S$41*A72/1000</f>
+        <v>18.9375</v>
+      </c>
+      <c r="U56" s="1">
+        <f>S56-W56</f>
+        <v>7.703125</v>
+      </c>
+      <c r="W56" s="1">
+        <f t="shared" si="6"/>
+        <v>11.234375</v>
+      </c>
+      <c r="X56" s="15">
+        <f>1-(W56/S56)</f>
+        <v>0.40676567656765672</v>
+      </c>
+      <c r="Y56" s="1">
+        <f>AVERAGE(C65:F65)</f>
+        <v>4.4937500000000004</v>
+      </c>
+      <c r="AA56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>16.5</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="5"/>
+        <v>0.33181818181818179</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="5"/>
+        <v>0.23787878787878786</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="5"/>
+        <v>0.29242424242424242</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="5"/>
+        <v>0.28636363636363632</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="5"/>
+        <v>0.62424242424242427</v>
+      </c>
+      <c r="P57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>10.3</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="5"/>
+        <v>0.5315533980582523</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="5"/>
+        <v>0.38106796116504849</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="5"/>
+        <v>0.46844660194174753</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="5"/>
+        <v>0.45873786407766981</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="5"/>
+        <v>1.6019417475728155</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="P58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="P59" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="R59" t="s">
+        <v>75</v>
+      </c>
+      <c r="X59" s="18">
+        <f>AVERAGE(X54:X56)</f>
+        <v>0.42534652412321777</v>
+      </c>
+      <c r="AA59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H60" t="s">
+        <v>63</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="15">
+        <f>((C51-$A$57)/$A$57)</f>
+        <v>-0.66818181818181821</v>
+      </c>
+      <c r="D61" s="15">
+        <f t="shared" ref="D61:H61" si="7">((D51-$A$57)/$A$57)</f>
+        <v>-0.76212121212121209</v>
+      </c>
+      <c r="E61" s="15">
+        <f t="shared" si="7"/>
+        <v>-0.70757575757575764</v>
+      </c>
+      <c r="F61" s="15">
+        <f t="shared" si="7"/>
+        <v>-0.71363636363636362</v>
+      </c>
+      <c r="G61" s="15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="15">
+        <f t="shared" si="7"/>
+        <v>-0.37575757575757573</v>
+      </c>
+      <c r="I61" s="16">
+        <f>AVERAGE(C61:F61)</f>
+        <v>-0.71287878787878789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="15">
+        <f>((C51-$A$58)/$A$58)</f>
+        <v>-0.46844660194174764</v>
+      </c>
+      <c r="D62" s="15">
+        <f t="shared" ref="D62:H62" si="8">((D51-$A$58)/$A$58)</f>
+        <v>-0.61893203883495151</v>
+      </c>
+      <c r="E62" s="15">
+        <f t="shared" si="8"/>
+        <v>-0.53155339805825241</v>
+      </c>
+      <c r="F62" s="15">
+        <f t="shared" si="8"/>
+        <v>-0.54126213592233019</v>
+      </c>
+      <c r="G62" s="15">
+        <f t="shared" si="8"/>
+        <v>0.60194174757281538</v>
+      </c>
+      <c r="H62" s="15">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="16">
+        <f>AVERAGE(C48:F48)</f>
+        <v>-0.6638235294117647</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B65" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="D65">
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="G65">
+        <v>11.9</v>
+      </c>
+      <c r="H65">
+        <v>7.5750000000000002</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>4.9749999999999996</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <f>C$65/$A67</f>
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:H72" si="9">D$65/$A67</f>
+        <v>0.91959798994974884</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="9"/>
+        <v>0.8040201005025126</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="9"/>
+        <v>0.8894472361809046</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="9"/>
+        <v>2.391959798994975</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="9"/>
+        <v>1.5226130653266332</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>4.5750000000000002</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C72" si="10">C$65/$A68</f>
+        <v>1.0874316939890709</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <f t="shared" si="9"/>
+        <v>0.87431693989071035</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="9"/>
+        <v>0.96721311475409832</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="9"/>
+        <v>2.6010928961748632</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="9"/>
+        <v>1.6557377049180328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>4</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="10"/>
+        <v>1.2437499999999999</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="9"/>
+        <v>1.14375</v>
+      </c>
+      <c r="E69">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="9"/>
+        <v>1.10625</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="9"/>
+        <v>2.9750000000000001</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="9"/>
+        <v>1.89375</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>4.4249999999999998</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="10"/>
+        <v>1.1242937853107344</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="9"/>
+        <v>1.0338983050847459</v>
+      </c>
+      <c r="E70">
+        <f t="shared" si="9"/>
+        <v>0.903954802259887</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="9"/>
+        <v>2.6892655367231639</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="9"/>
+        <v>1.7118644067796611</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>11.9</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="10"/>
+        <v>0.41806722689075626</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="9"/>
+        <v>0.38445378151260506</v>
+      </c>
+      <c r="E71">
+        <f t="shared" si="9"/>
+        <v>0.33613445378151258</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="9"/>
+        <v>0.37184873949579828</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="9"/>
+        <v>0.63655462184873945</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>7.5750000000000002</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="10"/>
+        <v>0.65676567656765672</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="9"/>
+        <v>0.60396039603960394</v>
+      </c>
+      <c r="E72">
+        <f t="shared" si="9"/>
+        <v>0.528052805280528</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="9"/>
+        <v>0.58415841584158412</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="9"/>
+        <v>1.5709570957095709</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B74" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B75" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="15">
+        <f>((C65-$A$71)/$A$71)</f>
+        <v>-0.58193277310924374</v>
+      </c>
+      <c r="D75" s="15">
+        <f t="shared" ref="D75:H75" si="11">((D65-$A$71)/$A$71)</f>
+        <v>-0.61554621848739499</v>
+      </c>
+      <c r="E75" s="15">
+        <f t="shared" si="11"/>
+        <v>-0.66386554621848737</v>
+      </c>
+      <c r="F75" s="15">
+        <f t="shared" si="11"/>
+        <v>-0.62815126050420167</v>
+      </c>
+      <c r="G75" s="15">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="15">
+        <f t="shared" si="11"/>
+        <v>-0.36344537815126049</v>
+      </c>
+      <c r="I75" s="16">
+        <f>AVERAGE(C75:F75)</f>
+        <v>-0.62237394957983194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C76" s="15">
+        <f>((C65-$A$72)/$A$72)</f>
+        <v>-0.34323432343234328</v>
+      </c>
+      <c r="D76" s="15">
+        <f t="shared" ref="D76:H76" si="12">((D65-$A$72)/$A$72)</f>
+        <v>-0.396039603960396</v>
+      </c>
+      <c r="E76" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.47194719471947194</v>
+      </c>
+      <c r="F76" s="15">
+        <f t="shared" si="12"/>
+        <v>-0.41584158415841588</v>
+      </c>
+      <c r="G76" s="15">
+        <f t="shared" si="12"/>
+        <v>0.57095709570957098</v>
+      </c>
+      <c r="H76" s="15">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="16">
+        <f>AVERAGE(C76:F76)</f>
+        <v>-0.40676567656765683</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19"/>
+      <c r="E77" s="19"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="19"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B78" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B79" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+      <c r="D79">
+        <v>5.7</v>
+      </c>
+      <c r="E79">
+        <v>6.15</v>
+      </c>
+      <c r="F79">
+        <v>4.3</v>
+      </c>
+      <c r="G79">
+        <v>13.25</v>
+      </c>
+      <c r="H79">
+        <v>11.85</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>6</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <f>C$79/$A81</f>
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <f t="shared" ref="D81:H86" si="13">D$79/$A81</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="E81">
+        <f t="shared" si="13"/>
+        <v>1.0250000000000001</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="13"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="13"/>
+        <v>2.2083333333333335</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="13"/>
+        <v>1.9749999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>5.7</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82">
+        <f t="shared" ref="C82:C86" si="14">C$79/$A82</f>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <f t="shared" si="13"/>
+        <v>1.0789473684210527</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="13"/>
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="13"/>
+        <v>2.3245614035087718</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="13"/>
+        <v>2.0789473684210527</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>6.15</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="14"/>
+        <v>0.97560975609756095</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="13"/>
+        <v>0.92682926829268286</v>
+      </c>
+      <c r="E83">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="13"/>
+        <v>0.69918699186991862</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="13"/>
+        <v>2.154471544715447</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="13"/>
+        <v>1.9268292682926829</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>4.3</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="14"/>
+        <v>1.3953488372093024</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="13"/>
+        <v>1.3255813953488373</v>
+      </c>
+      <c r="E84">
+        <f t="shared" si="13"/>
+        <v>1.430232558139535</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="13"/>
+        <v>3.0813953488372094</v>
+      </c>
+      <c r="H84">
+        <f t="shared" si="13"/>
+        <v>2.7558139534883721</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>13.25</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="14"/>
+        <v>0.45283018867924529</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="13"/>
+        <v>0.43018867924528303</v>
+      </c>
+      <c r="E85">
+        <f t="shared" si="13"/>
+        <v>0.46415094339622642</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="13"/>
+        <v>0.32452830188679244</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="13"/>
+        <v>0.89433962264150946</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>11.85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="14"/>
+        <v>0.50632911392405067</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="13"/>
+        <v>0.48101265822784811</v>
+      </c>
+      <c r="E86">
+        <f t="shared" si="13"/>
+        <v>0.51898734177215189</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="13"/>
+        <v>0.3628691983122363</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="13"/>
+        <v>1.1181434599156119</v>
+      </c>
+      <c r="H86">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B88" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H88" t="s">
+        <v>63</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B89" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="15">
+        <f>((C79-$A85)/$A$85)</f>
+        <v>-0.54716981132075471</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" ref="D89:H89" si="15">((D79-$A85)/$A$85)</f>
+        <v>-0.56981132075471697</v>
+      </c>
+      <c r="E89" s="15">
+        <f t="shared" si="15"/>
+        <v>-0.53584905660377358</v>
+      </c>
+      <c r="F89" s="15">
+        <f t="shared" si="15"/>
+        <v>-0.67547169811320751</v>
+      </c>
+      <c r="G89" s="15">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="15">
+        <f t="shared" si="15"/>
+        <v>-0.1056603773584906</v>
+      </c>
+      <c r="I89" s="16">
+        <f>AVERAGE(C89:F89)</f>
+        <v>-0.58207547169811324</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="15">
+        <f>((C79-$A$86)/$A$86)</f>
+        <v>-0.49367088607594933</v>
+      </c>
+      <c r="D90" s="15">
+        <f t="shared" ref="D90:H90" si="16">((D79-$A$86)/$A$86)</f>
+        <v>-0.51898734177215189</v>
+      </c>
+      <c r="E90" s="15">
+        <f t="shared" si="16"/>
+        <v>-0.48101265822784806</v>
+      </c>
+      <c r="F90" s="15">
+        <f t="shared" si="16"/>
+        <v>-0.6371308016877637</v>
+      </c>
+      <c r="G90" s="15">
+        <f t="shared" si="16"/>
+        <v>0.11814345991561184</v>
+      </c>
+      <c r="H90" s="15">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="16">
+        <f>AVERAGE(C76:F76)</f>
+        <v>-0.40676567656765683</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A91" s="19"/>
+      <c r="B91" s="19"/>
+      <c r="C91" s="19"/>
+      <c r="D91" s="19"/>
+      <c r="E91" s="19"/>
+      <c r="F91" s="19"/>
+      <c r="G91" s="19"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B92" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I92" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B93" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" s="6">
+        <v>6.15</v>
+      </c>
+      <c r="D93" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="E93" s="6">
+        <v>11.475</v>
+      </c>
+      <c r="F93" s="6">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="G93" s="6">
+        <v>15</v>
+      </c>
+      <c r="H93" s="6">
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="6"/>
+      <c r="O94" s="6"/>
+      <c r="P94" s="6"/>
+      <c r="Q94" s="6"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A95" s="6">
+        <v>6.15</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <f>C$93/$A95</f>
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ref="D95:H100" si="17">D$93/$A95</f>
+        <v>0.84552845528455278</v>
+      </c>
+      <c r="E95">
+        <f t="shared" si="17"/>
+        <v>1.8658536585365852</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="17"/>
+        <v>0.9390243902439025</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="17"/>
+        <v>2.4390243902439024</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="17"/>
+        <v>2.0731707317073171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A96" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ref="C96:C100" si="18">C$93/$A96</f>
+        <v>1.1826923076923077</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="E96">
+        <f t="shared" si="17"/>
+        <v>2.2067307692307692</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="17"/>
+        <v>1.1105769230769231</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="17"/>
+        <v>2.8846153846153846</v>
+      </c>
+      <c r="H96">
+        <f t="shared" si="17"/>
+        <v>2.4519230769230766</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97" s="6">
+        <v>11.475</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="18"/>
+        <v>0.53594771241830075</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="17"/>
+        <v>0.45315904139433555</v>
+      </c>
+      <c r="E97">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="17"/>
+        <v>0.50326797385620925</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="17"/>
+        <v>1.3071895424836601</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="17"/>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A98" s="6">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="18"/>
+        <v>1.0649350649350648</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="17"/>
+        <v>0.90043290043290036</v>
+      </c>
+      <c r="E98">
+        <f t="shared" si="17"/>
+        <v>1.9870129870129869</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="17"/>
+        <v>2.5974025974025974</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="17"/>
+        <v>2.2077922077922079</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A99" s="6">
+        <v>15</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="18"/>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="17"/>
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="E99">
+        <f t="shared" si="17"/>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="17"/>
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="17"/>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A100" s="6">
+        <v>12.75</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="18"/>
+        <v>0.4823529411764706</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="17"/>
+        <v>0.40784313725490196</v>
+      </c>
+      <c r="E100">
+        <f t="shared" si="17"/>
+        <v>0.9</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="17"/>
+        <v>0.45294117647058824</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="17"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="17"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B102" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H102" t="s">
+        <v>63</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B103" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103" s="15">
+        <f>((C93-$A99)/$A99)</f>
+        <v>-0.59</v>
+      </c>
+      <c r="D103" s="15">
+        <f t="shared" ref="D103:G103" si="19">((D93-$A99)/$A99)</f>
+        <v>-0.65333333333333343</v>
+      </c>
+      <c r="E103" s="15">
+        <f t="shared" si="19"/>
+        <v>-0.23500000000000001</v>
+      </c>
+      <c r="F103" s="15">
+        <f t="shared" si="19"/>
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="G103" s="15">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="15">
+        <f>((H93-$A99)/$A99)</f>
+        <v>-0.15</v>
+      </c>
+      <c r="I103" s="16">
+        <f>AVERAGE(C103:F103)</f>
+        <v>-0.52333333333333343</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B104" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="15">
+        <f>((C93-$A100)/$A100)</f>
+        <v>-0.51764705882352935</v>
+      </c>
+      <c r="D104" s="15">
+        <f t="shared" ref="D104:H104" si="20">((D93-$A$100)/$A$100)</f>
+        <v>-0.59215686274509804</v>
+      </c>
+      <c r="E104" s="15">
+        <f t="shared" si="20"/>
+        <v>-0.10000000000000003</v>
+      </c>
+      <c r="F104" s="15">
+        <f t="shared" si="20"/>
+        <v>-0.54705882352941171</v>
+      </c>
+      <c r="G104" s="15">
+        <f t="shared" si="20"/>
+        <v>0.17647058823529413</v>
+      </c>
+      <c r="H104" s="15">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="16">
+        <f>AVERAGE(C90:F90)</f>
+        <v>-0.53270042194092826</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A105" s="19"/>
+      <c r="B105" s="19"/>
+      <c r="C105" s="19"/>
+      <c r="D105" s="19"/>
+      <c r="E105" s="19"/>
+      <c r="F105" s="19"/>
+      <c r="G105" s="19"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B106" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I106" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B107" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C107" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="D107" s="6">
+        <v>5.5750000000000002</v>
+      </c>
+      <c r="E107" s="6">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="F107" s="6">
+        <v>6.9249999999999998</v>
+      </c>
+      <c r="G107" s="6">
+        <v>7.85</v>
+      </c>
+      <c r="H107" s="6">
+        <v>6.9749999999999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A109" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <f>C$107/$A109</f>
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <f t="shared" ref="D109:H114" si="21">D$107/$A109</f>
+        <v>0.87109375</v>
+      </c>
+      <c r="E109">
+        <f t="shared" si="21"/>
+        <v>0.90234375</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="21"/>
+        <v>1.08203125</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="21"/>
+        <v>1.2265624999999998</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="21"/>
+        <v>1.0898437499999998</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A110" s="6">
+        <v>5.5750000000000002</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C110">
+        <f t="shared" ref="C110:C114" si="22">C$107/$A110</f>
+        <v>1.147982062780269</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="E110">
+        <f t="shared" si="21"/>
+        <v>1.0358744394618835</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="21"/>
+        <v>1.242152466367713</v>
+      </c>
+      <c r="G110">
+        <f>G$107/$A110</f>
+        <v>1.4080717488789236</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="21"/>
+        <v>1.2511210762331837</v>
+      </c>
+      <c r="L110" s="6"/>
+      <c r="M110" s="6"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A111" s="6">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111">
+        <f>C$107/$A111</f>
+        <v>1.1082251082251082</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="21"/>
+        <v>0.96536796536796532</v>
+      </c>
+      <c r="E111">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="21"/>
+        <v>1.1991341991341991</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="21"/>
+        <v>1.3593073593073592</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="21"/>
+        <v>1.2077922077922076</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A112" s="6">
+        <v>6.9249999999999998</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="22"/>
+        <v>0.92418772563176899</v>
+      </c>
+      <c r="D112">
+        <f>D$107/$A112</f>
+        <v>0.80505415162454874</v>
+      </c>
+      <c r="E112">
+        <f t="shared" si="21"/>
+        <v>0.8339350180505416</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="21"/>
+        <v>1.1335740072202165</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="21"/>
+        <v>1.0072202166064981</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" s="6">
+        <v>7.85</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="22"/>
+        <v>0.8152866242038217</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="21"/>
+        <v>0.71019108280254784</v>
+      </c>
+      <c r="E113">
+        <f t="shared" si="21"/>
+        <v>0.73566878980891726</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="21"/>
+        <v>0.88216560509554143</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="21"/>
+        <v>0.88853503184713378</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" s="6">
+        <v>6.9749999999999996</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="22"/>
+        <v>0.91756272401433703</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="21"/>
+        <v>0.7992831541218639</v>
+      </c>
+      <c r="E114">
+        <f t="shared" si="21"/>
+        <v>0.82795698924731187</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="21"/>
+        <v>0.99283154121863804</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="21"/>
+        <v>1.1254480286738351</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="21"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B116" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H116" t="s">
+        <v>63</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C117" s="15">
+        <f>((C107-$A113)/$A113)</f>
+        <v>-0.18471337579617828</v>
+      </c>
+      <c r="D117" s="15">
+        <f t="shared" ref="D117:H117" si="23">((D107-$A113)/$A113)</f>
+        <v>-0.28980891719745216</v>
+      </c>
+      <c r="E117" s="15">
+        <f t="shared" si="23"/>
+        <v>-0.26433121019108274</v>
+      </c>
+      <c r="F117" s="15">
+        <f t="shared" si="23"/>
+        <v>-0.11783439490445859</v>
+      </c>
+      <c r="G117" s="15">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="15">
+        <f t="shared" si="23"/>
+        <v>-0.11146496815286625</v>
+      </c>
+      <c r="I117" s="16">
+        <f>AVERAGE(C117:F117)</f>
+        <v>-0.21417197452229295</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B118" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118" s="15">
+        <f>((C107-$A114)/$A114)</f>
+        <v>-8.2437275985662986E-2</v>
+      </c>
+      <c r="D118" s="15">
+        <f t="shared" ref="D118:H118" si="24">((D107-$A114)/$A114)</f>
+        <v>-0.20071684587813612</v>
+      </c>
+      <c r="E118" s="15">
+        <f t="shared" si="24"/>
+        <v>-0.17204301075268807</v>
+      </c>
+      <c r="F118" s="15">
+        <f t="shared" si="24"/>
+        <v>-7.168458781361982E-3</v>
+      </c>
+      <c r="G118" s="15">
+        <f t="shared" si="24"/>
+        <v>0.12544802867383514</v>
+      </c>
+      <c r="H118" s="15">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I118" s="16">
+        <f>AVERAGE(C104:F104)</f>
+        <v>-0.4392156862745098</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B3:B8">
+    <cfRule type="dataBar" priority="26">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F30715BD-92F8-40CF-9883-EBB280099FB2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C3:C8">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B9FA8CA2-D1AF-4E19-B44C-8E7143397D99}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D8">
+    <cfRule type="dataBar" priority="24">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EEC01745-4F15-4576-98C3-3C5DD129931A}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E3:E8">
+    <cfRule type="dataBar" priority="23">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BB6DF961-4418-4AB3-B4F0-1655DAAFB5F3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F8">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{29A61C13-8996-4AE7-B361-44439660B69D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G3:G8">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D26CAA71-D0EA-46C0-A267-4310AAD7E9C1}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3:H8">
+    <cfRule type="dataBar" priority="20">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EEC21C6B-87C0-471C-B2F3-B6B99B383318}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I8">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{BA2EFC65-DABE-4F60-AE1C-A835EDE135CE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J8">
+    <cfRule type="dataBar" priority="18">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{CA643DFB-224A-46F9-B372-8E6ABA8C32DA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3:K8">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6DB72AA7-0CD2-4F03-BD83-60439EF70DE0}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L8">
+    <cfRule type="dataBar" priority="16">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6347791D-EBA0-48F2-B933-6EB649707F99}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M3:M8">
+    <cfRule type="dataBar" priority="15">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3986E952-1C36-4C75-9EB9-05B492A1EB44}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B24">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{067078A2-268F-410D-A665-659CE2E17FBC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:C24">
+    <cfRule type="dataBar" priority="12">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0D32F953-F4EC-46C6-A6CF-5A1AE95E3B9D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D24">
+    <cfRule type="dataBar" priority="11">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{992E4E1E-EE8C-4A95-A8A7-5B46EB190C1B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19:E24">
+    <cfRule type="dataBar" priority="10">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{D2D5ABBF-7809-481E-9AF1-BE7249FC9AC3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19:F24">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{88F88A91-FBD2-4658-9075-E1F0F3B7CA59}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19:G24">
+    <cfRule type="dataBar" priority="8">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{95797DBE-FDA1-4EB9-9BB3-CA5ED6BC2379}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H24">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{86063697-7D71-44C1-8577-FC62BCB62955}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:I24">
+    <cfRule type="dataBar" priority="6">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{27BEDC37-2AFF-4B17-820B-1AFA2192D8A3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J24">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{76085B6E-2349-43EA-8326-A9BC64327522}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19:K24">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{6757D8DB-85EA-4F15-BB42-21DB4373D3EE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:L24">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{C20E3FA3-D0A5-4F3C-819C-A23B77BCEBF3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M19:M24">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFB628"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AEB0A33F-840C-4D87-9B30-CF39BB3C7F69}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:M31">
+    <cfRule type="iconSet" priority="1">
+      <iconSet reverse="1">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F30715BD-92F8-40CF-9883-EBB280099FB2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B3:B8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B9FA8CA2-D1AF-4E19-B44C-8E7143397D99}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C3:C8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EEC01745-4F15-4576-98C3-3C5DD129931A}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D3:D8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BB6DF961-4418-4AB3-B4F0-1655DAAFB5F3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E3:E8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{29A61C13-8996-4AE7-B361-44439660B69D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F3:F8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D26CAA71-D0EA-46C0-A267-4310AAD7E9C1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G3:G8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EEC21C6B-87C0-471C-B2F3-B6B99B383318}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H3:H8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{BA2EFC65-DABE-4F60-AE1C-A835EDE135CE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I3:I8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{CA643DFB-224A-46F9-B372-8E6ABA8C32DA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J3:J8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6DB72AA7-0CD2-4F03-BD83-60439EF70DE0}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K3:K8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6347791D-EBA0-48F2-B933-6EB649707F99}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L3:L8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3986E952-1C36-4C75-9EB9-05B492A1EB44}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M3:M8</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{067078A2-268F-410D-A665-659CE2E17FBC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>B19:B24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0D32F953-F4EC-46C6-A6CF-5A1AE95E3B9D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C19:C24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{992E4E1E-EE8C-4A95-A8A7-5B46EB190C1B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D19:D24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{D2D5ABBF-7809-481E-9AF1-BE7249FC9AC3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>E19:E24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{88F88A91-FBD2-4658-9075-E1F0F3B7CA59}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F19:F24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{95797DBE-FDA1-4EB9-9BB3-CA5ED6BC2379}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G19:G24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{86063697-7D71-44C1-8577-FC62BCB62955}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>H19:H24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{27BEDC37-2AFF-4B17-820B-1AFA2192D8A3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I19:I24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{76085B6E-2349-43EA-8326-A9BC64327522}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>J19:J24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{6757D8DB-85EA-4F15-BB42-21DB4373D3EE}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>K19:K24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{C20E3FA3-D0A5-4F3C-819C-A23B77BCEBF3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L19:L24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AEB0A33F-840C-4D87-9B30-CF39BB3C7F69}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>M19:M24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="iconSet" priority="14" id="{39968A0B-742B-47D0-B2F7-F26BFF263FA7}">
+            <x14:iconSet custom="1">
+              <x14:cfvo type="percent">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>33</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="percent">
+                <xm:f>67</xm:f>
+              </x14:cfvo>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="2"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="1"/>
+              <x14:cfIcon iconSet="3TrafficLights1" iconId="0"/>
+            </x14:iconSet>
+          </x14:cfRule>
+          <xm:sqref>B10:M15</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:L60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="7" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B9" s="24"/>
+      <c r="C9" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="26"/>
+    </row>
+    <row r="10" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+      <c r="B10" s="27"/>
+      <c r="C10" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13">
+        <f>B16-80</f>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:G13" si="0">C16-80</f>
+        <v>80</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16">
+        <v>80</v>
+      </c>
+      <c r="C16">
+        <f>80+50+30</f>
+        <v>160</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ref="D16:F16" si="1">80+50+30</f>
+        <v>160</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>160</v>
+      </c>
+      <c r="G16" s="28">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18">
+        <v>10.3</v>
+      </c>
+      <c r="C18">
+        <v>5.4749999999999996</v>
+      </c>
+      <c r="D18">
+        <v>3.9249999999999998</v>
+      </c>
+      <c r="E18">
+        <v>4.8250000000000002</v>
+      </c>
+      <c r="F18">
+        <v>4.7249999999999996</v>
+      </c>
+      <c r="G18">
+        <v>16.5</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="16">
+        <v>-0.37575757575757573</v>
+      </c>
+      <c r="C21" s="15">
+        <v>-0.66818181818181821</v>
+      </c>
+      <c r="D21" s="15">
+        <v>-0.76212121212121209</v>
+      </c>
+      <c r="E21" s="15">
+        <v>-0.70757575757575764</v>
+      </c>
+      <c r="F21" s="15">
+        <v>-0.71363636363636362</v>
+      </c>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="16">
+        <v>0</v>
+      </c>
+      <c r="C22" s="15">
+        <v>-0.46844660194174764</v>
+      </c>
+      <c r="D22" s="15">
+        <v>-0.61893203883495151</v>
+      </c>
+      <c r="E22" s="15">
+        <v>-0.53155339805825241</v>
+      </c>
+      <c r="F22" s="15">
+        <v>-0.54126213592233019</v>
+      </c>
+      <c r="G22" s="15">
+        <v>0.60194174757281538</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>130</v>
+      </c>
+      <c r="D28">
+        <v>130</v>
+      </c>
+      <c r="E28">
+        <v>130</v>
+      </c>
+      <c r="F28">
+        <v>130</v>
+      </c>
+      <c r="G28">
+        <v>80</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30">
+        <v>11.85</v>
+      </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
+      <c r="D30">
+        <v>5.7</v>
+      </c>
+      <c r="E30">
+        <v>6.15</v>
+      </c>
+      <c r="F30">
+        <v>4.3</v>
+      </c>
+      <c r="G30">
+        <v>13.25</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="16">
+        <v>-0.1056603773584906</v>
+      </c>
+      <c r="C32" s="16">
+        <v>-0.54716981132075471</v>
+      </c>
+      <c r="D32" s="16">
+        <v>-0.56981132075471697</v>
+      </c>
+      <c r="E32" s="16">
+        <v>-0.53584905660377358</v>
+      </c>
+      <c r="F32" s="16">
+        <v>-0.67547169811320751</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="16">
+        <v>0</v>
+      </c>
+      <c r="C33" s="16">
+        <v>-0.49367088607594933</v>
+      </c>
+      <c r="D33" s="16">
+        <v>-0.51898734177215189</v>
+      </c>
+      <c r="E33" s="16">
+        <v>-0.48101265822784806</v>
+      </c>
+      <c r="F33" s="16">
+        <v>-0.6371308016877637</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0.11814345991561184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F37" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39">
+        <v>80</v>
+      </c>
+      <c r="C39">
+        <v>130</v>
+      </c>
+      <c r="D39">
+        <v>130</v>
+      </c>
+      <c r="E39">
+        <v>130</v>
+      </c>
+      <c r="F39">
+        <v>130</v>
+      </c>
+      <c r="G39">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H41" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="6">
+        <v>12.75</v>
+      </c>
+      <c r="C42" s="6">
+        <v>6.15</v>
+      </c>
+      <c r="D42" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="E42" s="6">
+        <v>11.475</v>
+      </c>
+      <c r="F42" s="6">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="G42" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="H43" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="16">
+        <v>-0.15</v>
+      </c>
+      <c r="C44" s="16">
+        <v>-0.59</v>
+      </c>
+      <c r="D44" s="16">
+        <v>-0.65333333333333343</v>
+      </c>
+      <c r="E44" s="16">
+        <v>-0.23500000000000001</v>
+      </c>
+      <c r="F44" s="16">
+        <v>-0.61499999999999999</v>
+      </c>
+      <c r="G44" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A45" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="16">
+        <v>0</v>
+      </c>
+      <c r="C45" s="16">
+        <v>-0.51764705882352935</v>
+      </c>
+      <c r="D45" s="16">
+        <v>-0.59215686274509804</v>
+      </c>
+      <c r="E45" s="16">
+        <v>-0.10000000000000003</v>
+      </c>
+      <c r="F45" s="16">
+        <v>-0.54705882352941171</v>
+      </c>
+      <c r="G45" s="16">
+        <v>0.17647058823529413</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="19"/>
+    </row>
+    <row r="50" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F50" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="B51" s="27"/>
+      <c r="C51" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="F51" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="G51" s="27"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53">
+        <v>80</v>
+      </c>
+      <c r="C53">
+        <v>130</v>
+      </c>
+      <c r="D53">
+        <v>130</v>
+      </c>
+      <c r="E53">
+        <v>130</v>
+      </c>
+      <c r="F53">
+        <v>130</v>
+      </c>
+      <c r="G53">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B56" s="6">
+        <v>6.9749999999999996</v>
+      </c>
+      <c r="C56" s="6">
+        <v>6.4</v>
+      </c>
+      <c r="D56" s="6">
+        <v>5.5750000000000002</v>
+      </c>
+      <c r="E56" s="6">
+        <v>5.7750000000000004</v>
+      </c>
+      <c r="F56" s="6">
+        <v>6.9249999999999998</v>
+      </c>
+      <c r="G56" s="6">
+        <v>7.85</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59" s="16">
+        <v>-0.11146496815286625</v>
+      </c>
+      <c r="C59" s="16">
+        <v>-0.18471337579617828</v>
+      </c>
+      <c r="D59" s="16">
+        <v>-0.28980891719745216</v>
+      </c>
+      <c r="E59" s="16">
+        <v>-0.26433121019108274</v>
+      </c>
+      <c r="F59" s="16">
+        <v>-0.11783439490445859</v>
+      </c>
+      <c r="G59" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A60" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B60" s="16">
+        <v>0</v>
+      </c>
+      <c r="C60" s="16">
+        <v>-8.2437275985662986E-2</v>
+      </c>
+      <c r="D60" s="16">
+        <v>-0.20071684587813612</v>
+      </c>
+      <c r="E60" s="16">
+        <v>-0.17204301075268807</v>
+      </c>
+      <c r="F60" s="16">
+        <v>-7.168458781361982E-3</v>
+      </c>
+      <c r="G60" s="16">
+        <v>0.12544802867383514</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results/SummaryResultsNitrate.xlsx
+++ b/Results/SummaryResultsNitrate.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\N\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\N\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1752" yWindow="0" windowWidth="27816" windowHeight="12792"/>
+    <workbookView xWindow="2680" yWindow="0" windowWidth="27820" windowHeight="12790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryResultsNitrate" sheetId="1" r:id="rId1"/>
-    <sheet name="2015" sheetId="2" r:id="rId2"/>
-    <sheet name="2015Summary" sheetId="3" r:id="rId3"/>
+    <sheet name="%calc" sheetId="4" r:id="rId2"/>
+    <sheet name="2015" sheetId="2" r:id="rId3"/>
+    <sheet name="2015Summary" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="nitNsd" localSheetId="1">'2015'!$A$10:$M$15</definedName>
-    <definedName name="Smg" localSheetId="1">'2015'!$A$18:$M$24</definedName>
-    <definedName name="Smgsd" localSheetId="1">'2015'!$A$26:$M$31</definedName>
+    <definedName name="nitNsd" localSheetId="2">'2015'!$A$10:$M$15</definedName>
+    <definedName name="Smg" localSheetId="2">'2015'!$A$18:$M$24</definedName>
+    <definedName name="Smgsd" localSheetId="2">'2015'!$A$26:$M$31</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -88,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="120">
   <si>
     <t>kas</t>
   </si>
@@ -430,6 +431,24 @@
   </si>
   <si>
     <t xml:space="preserve"> mean N per ha (kg)</t>
+  </si>
+  <si>
+    <t>Difference to Min</t>
+  </si>
+  <si>
+    <t>S1-S4 average</t>
+  </si>
+  <si>
+    <t>Significant</t>
+  </si>
+  <si>
+    <t>Non-significant p&gt;0.05</t>
+  </si>
+  <si>
+    <t>R, nitraatti 15.11.2015</t>
+  </si>
+  <si>
+    <t>R, nitraatti 16.10.2017</t>
   </si>
 </sst>
 </file>
@@ -437,9 +456,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -938,7 +957,7 @@
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -984,7 +1003,7 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -995,11 +1014,11 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1091,78 +1110,10 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1214,10 +1165,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="FFFFFF"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="000000"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1508,17 +1459,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:X146"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.44140625" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1547,7 +1498,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1577,7 +1528,7 @@
         <v>29.5625</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1607,7 +1558,7 @@
         <v>28.1875</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>17</v>
       </c>
@@ -1637,7 +1588,7 @@
         <v>28.125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>23</v>
       </c>
@@ -1667,7 +1618,7 @@
         <v>30.625</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>29</v>
       </c>
@@ -1697,7 +1648,7 @@
         <v>26.4375</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>35</v>
       </c>
@@ -1727,7 +1678,7 @@
         <v>23.9375</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>41</v>
       </c>
@@ -1757,7 +1708,7 @@
         <v>29.375</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>47</v>
       </c>
@@ -1787,7 +1738,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>53</v>
       </c>
@@ -1817,7 +1768,7 @@
         <v>27.4375</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>59</v>
       </c>
@@ -1847,7 +1798,7 @@
         <v>30.625</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>65</v>
       </c>
@@ -1877,7 +1828,7 @@
         <v>26.0625</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>71</v>
       </c>
@@ -1907,7 +1858,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>77</v>
       </c>
@@ -1937,7 +1888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>83</v>
       </c>
@@ -1967,7 +1918,7 @@
         <v>29.3125</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>89</v>
       </c>
@@ -1997,7 +1948,7 @@
         <v>30.625</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>95</v>
       </c>
@@ -2030,7 +1981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>101</v>
       </c>
@@ -2060,7 +2011,7 @@
         <v>25.625</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>107</v>
       </c>
@@ -2090,7 +2041,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>113</v>
       </c>
@@ -2120,7 +2071,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>119</v>
       </c>
@@ -2150,7 +2101,7 @@
         <v>36.875</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>125</v>
       </c>
@@ -2180,7 +2131,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>131</v>
       </c>
@@ -2210,7 +2161,7 @@
         <v>30.625</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>137</v>
       </c>
@@ -2240,7 +2191,7 @@
         <v>32.5625</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>143</v>
       </c>
@@ -2270,7 +2221,7 @@
         <v>28.5625</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2300,7 +2251,7 @@
         <v>12.4375</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>9</v>
       </c>
@@ -2330,7 +2281,7 @@
         <v>11.4375</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>15</v>
       </c>
@@ -2360,7 +2311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>21</v>
       </c>
@@ -2390,7 +2341,7 @@
         <v>11.0625</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2420,7 +2371,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>33</v>
       </c>
@@ -2450,7 +2401,7 @@
         <v>18.9375</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>39</v>
       </c>
@@ -2480,7 +2431,7 @@
         <v>11.875</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>45</v>
       </c>
@@ -2510,7 +2461,7 @@
         <v>10.625</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>51</v>
       </c>
@@ -2540,7 +2491,7 @@
         <v>10.625</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>57</v>
       </c>
@@ -2570,7 +2521,7 @@
         <v>11.3125</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>63</v>
       </c>
@@ -2600,7 +2551,7 @@
         <v>18.9375</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>69</v>
       </c>
@@ -2630,7 +2581,7 @@
         <v>20.375</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>75</v>
       </c>
@@ -2660,7 +2611,7 @@
         <v>14.0625</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>81</v>
       </c>
@@ -2690,7 +2641,7 @@
         <v>10.1875</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>87</v>
       </c>
@@ -2720,7 +2671,7 @@
         <v>10.875</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>93</v>
       </c>
@@ -2750,7 +2701,7 @@
         <v>11.875</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>99</v>
       </c>
@@ -2780,7 +2731,7 @@
         <v>23.625</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>105</v>
       </c>
@@ -2810,7 +2761,7 @@
         <v>20.625</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>111</v>
       </c>
@@ -2840,7 +2791,7 @@
         <v>9.5625</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>117</v>
       </c>
@@ -2870,7 +2821,7 @@
         <v>10.375</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>123</v>
       </c>
@@ -2900,7 +2851,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>129</v>
       </c>
@@ -2930,7 +2881,7 @@
         <v>10.8125</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>135</v>
       </c>
@@ -2960,7 +2911,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>141</v>
       </c>
@@ -2990,7 +2941,7 @@
         <v>13.9375</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>6</v>
       </c>
@@ -3020,7 +2971,7 @@
         <v>10.3125</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>12</v>
       </c>
@@ -3050,7 +3001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>18</v>
       </c>
@@ -3080,7 +3031,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>24</v>
       </c>
@@ -3110,7 +3061,7 @@
         <v>10.875</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>30</v>
       </c>
@@ -3140,7 +3091,7 @@
         <v>9.5625</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>36</v>
       </c>
@@ -3170,7 +3121,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>42</v>
       </c>
@@ -3200,7 +3151,7 @@
         <v>8.375</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>48</v>
       </c>
@@ -3230,7 +3181,7 @@
         <v>9.8125</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>54</v>
       </c>
@@ -3260,7 +3211,7 @@
         <v>9.5625</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>60</v>
       </c>
@@ -3290,7 +3241,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>66</v>
       </c>
@@ -3320,7 +3271,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>72</v>
       </c>
@@ -3350,7 +3301,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>78</v>
       </c>
@@ -3380,7 +3331,7 @@
         <v>8.9375</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>84</v>
       </c>
@@ -3410,7 +3361,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>90</v>
       </c>
@@ -3440,7 +3391,7 @@
         <v>9.375</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>96</v>
       </c>
@@ -3470,7 +3421,7 @@
         <v>9.875</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>102</v>
       </c>
@@ -3500,7 +3451,7 @@
         <v>7.9375</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>108</v>
       </c>
@@ -3530,7 +3481,7 @@
         <v>8.125</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>114</v>
       </c>
@@ -3560,7 +3511,7 @@
         <v>10.3125</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>120</v>
       </c>
@@ -3590,7 +3541,7 @@
         <v>12.8125</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>126</v>
       </c>
@@ -3620,7 +3571,7 @@
         <v>9.625</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>132</v>
       </c>
@@ -3650,7 +3601,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>138</v>
       </c>
@@ -3680,7 +3631,7 @@
         <v>9.125</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>144</v>
       </c>
@@ -3710,7 +3661,7 @@
         <v>9.375</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>4</v>
       </c>
@@ -3740,7 +3691,7 @@
         <v>24.125</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>10</v>
       </c>
@@ -3770,7 +3721,7 @@
         <v>16.8125</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3800,7 +3751,7 @@
         <v>20.875</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>22</v>
       </c>
@@ -3830,7 +3781,7 @@
         <v>23.0625</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>28</v>
       </c>
@@ -3860,7 +3811,7 @@
         <v>23.6875</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>34</v>
       </c>
@@ -3890,7 +3841,7 @@
         <v>23.8125</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>40</v>
       </c>
@@ -3920,7 +3871,7 @@
         <v>21.9375</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>46</v>
       </c>
@@ -3950,7 +3901,7 @@
         <v>21.875</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>52</v>
       </c>
@@ -3980,7 +3931,7 @@
         <v>25.3125</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>58</v>
       </c>
@@ -4010,7 +3961,7 @@
         <v>26.5625</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>64</v>
       </c>
@@ -4040,7 +3991,7 @@
         <v>28.1875</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>70</v>
       </c>
@@ -4070,7 +4021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>76</v>
       </c>
@@ -4100,7 +4051,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>82</v>
       </c>
@@ -4130,7 +4081,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4160,7 +4111,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>94</v>
       </c>
@@ -4190,7 +4141,7 @@
         <v>25.3125</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>100</v>
       </c>
@@ -4220,7 +4171,7 @@
         <v>27.375</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>106</v>
       </c>
@@ -4250,7 +4201,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>112</v>
       </c>
@@ -4280,7 +4231,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>118</v>
       </c>
@@ -4310,7 +4261,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>124</v>
       </c>
@@ -4340,7 +4291,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>130</v>
       </c>
@@ -4370,7 +4321,7 @@
         <v>19.4375</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>136</v>
       </c>
@@ -4400,7 +4351,7 @@
         <v>31.1875</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>142</v>
       </c>
@@ -4430,7 +4381,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>2</v>
       </c>
@@ -4460,7 +4411,7 @@
         <v>13.6875</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>8</v>
       </c>
@@ -4490,7 +4441,7 @@
         <v>9.8125</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>14</v>
       </c>
@@ -4520,7 +4471,7 @@
         <v>12.0625</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>20</v>
       </c>
@@ -4550,7 +4501,7 @@
         <v>11.8125</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>26</v>
       </c>
@@ -4580,7 +4531,7 @@
         <v>41.25</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>32</v>
       </c>
@@ -4610,7 +4561,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>38</v>
       </c>
@@ -4640,7 +4591,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>44</v>
       </c>
@@ -4670,7 +4621,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>50</v>
       </c>
@@ -4700,7 +4651,7 @@
         <v>15.375</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>56</v>
       </c>
@@ -4730,7 +4681,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>62</v>
       </c>
@@ -4760,7 +4711,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>68</v>
       </c>
@@ -4790,7 +4741,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>74</v>
       </c>
@@ -4820,7 +4771,7 @@
         <v>15.375</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>80</v>
       </c>
@@ -4850,7 +4801,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>86</v>
       </c>
@@ -4880,7 +4831,7 @@
         <v>28.6875</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>92</v>
       </c>
@@ -4910,7 +4861,7 @@
         <v>14.4375</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>98</v>
       </c>
@@ -4940,7 +4891,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>104</v>
       </c>
@@ -4970,7 +4921,7 @@
         <v>31.875</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>110</v>
       </c>
@@ -5000,7 +4951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5030,7 +4981,7 @@
         <v>13.9375</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>122</v>
       </c>
@@ -5060,7 +5011,7 @@
         <v>14.4375</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>128</v>
       </c>
@@ -5090,7 +5041,7 @@
         <v>17.3125</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>134</v>
       </c>
@@ -5120,7 +5071,7 @@
         <v>19.625</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>140</v>
       </c>
@@ -5150,7 +5101,7 @@
         <v>17.4375</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>1</v>
       </c>
@@ -5180,7 +5131,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>7</v>
       </c>
@@ -5210,7 +5161,7 @@
         <v>15.5625</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>13</v>
       </c>
@@ -5240,7 +5191,7 @@
         <v>23.125</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>19</v>
       </c>
@@ -5270,7 +5221,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>25</v>
       </c>
@@ -5300,7 +5251,7 @@
         <v>53.125</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>31</v>
       </c>
@@ -5330,7 +5281,7 @@
         <v>26.625</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>37</v>
       </c>
@@ -5360,7 +5311,7 @@
         <v>18.4375</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>43</v>
       </c>
@@ -5390,7 +5341,7 @@
         <v>17.625</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>49</v>
       </c>
@@ -5420,7 +5371,7 @@
         <v>14.1875</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>55</v>
       </c>
@@ -5450,7 +5401,7 @@
         <v>15.0625</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>61</v>
       </c>
@@ -5480,7 +5431,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>67</v>
       </c>
@@ -5510,7 +5461,7 @@
         <v>27.125</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>73</v>
       </c>
@@ -5540,7 +5491,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>79</v>
       </c>
@@ -5570,7 +5521,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>85</v>
       </c>
@@ -5600,7 +5551,7 @@
         <v>18.4375</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>91</v>
       </c>
@@ -5630,7 +5581,7 @@
         <v>16.875</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>97</v>
       </c>
@@ -5660,7 +5611,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>103</v>
       </c>
@@ -5690,7 +5641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>109</v>
       </c>
@@ -5720,7 +5671,7 @@
         <v>12.6875</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>115</v>
       </c>
@@ -5750,7 +5701,7 @@
         <v>14.0625</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>121</v>
       </c>
@@ -5780,7 +5731,7 @@
         <v>12.3125</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>127</v>
       </c>
@@ -5810,7 +5761,7 @@
         <v>14.4375</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>133</v>
       </c>
@@ -5840,7 +5791,7 @@
         <v>21.1875</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>139</v>
       </c>
@@ -5880,21 +5831,146 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE(4.98,4.58,4,4.43)</f>
+        <v>4.4975000000000005</v>
+      </c>
+      <c r="C3" s="15">
+        <f>B3/B4-1</f>
+        <v>-0.62205882352941178</v>
+      </c>
+      <c r="D3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>11.9</v>
+      </c>
+      <c r="C4" s="15">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>7.58</v>
+      </c>
+      <c r="C5" s="15">
+        <f>B5/B4-1</f>
+        <v>-0.36302521008403366</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11">
+        <f>AVERAGE(4.13,4,3.9,4.35)</f>
+        <v>4.0949999999999998</v>
+      </c>
+      <c r="C11" s="15">
+        <f>B11/B12-1</f>
+        <v>6.9190600522193169E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>3.83</v>
+      </c>
+      <c r="C12" s="15">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>3.7</v>
+      </c>
+      <c r="C13" s="15">
+        <f>B13/B12-1</f>
+        <v>-3.394255874673624E-2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA118"/>
   <sheetViews>
     <sheetView topLeftCell="F31" workbookViewId="0">
       <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="13" width="8.6640625" customWidth="1"/>
+    <col min="2" max="13" width="8.6328125" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="23" max="23" width="16.5546875" customWidth="1"/>
+    <col min="23" max="23" width="16.54296875" customWidth="1"/>
     <col min="29" max="29" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -5902,7 +5978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
@@ -5940,7 +6016,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -5985,7 +6061,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6030,7 +6106,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6075,7 +6151,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6116,7 +6192,7 @@
         <v>4.3250000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -6157,7 +6233,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6198,7 +6274,7 @@
         <v>5.5750000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -6206,7 +6282,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6247,7 +6323,7 @@
         <v>0.76321687612368705</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -6288,7 +6364,7 @@
         <v>0.65574385243019995</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -6329,7 +6405,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -6370,7 +6446,7 @@
         <v>0.73654599313281199</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -6411,7 +6487,7 @@
         <v>2.5139610179953098</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -6452,7 +6528,7 @@
         <v>1.3671747023210601</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -6466,7 +6542,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -6474,7 +6550,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B18" s="11" t="s">
         <v>27</v>
       </c>
@@ -6512,7 +6588,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -6553,7 +6629,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -6594,7 +6670,7 @@
         <v>48.25</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -6635,7 +6711,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -6676,7 +6752,7 @@
         <v>45.75</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -6717,7 +6793,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -6758,7 +6834,7 @@
         <v>37.25</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -6766,7 +6842,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -6807,7 +6883,7 @@
         <v>6.4549722436790304</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -6848,7 +6924,7 @@
         <v>8.5391256382996694</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -6889,7 +6965,7 @@
         <v>17.935068069752798</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -6930,7 +7006,7 @@
         <v>17.895530168173298</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -6971,7 +7047,7 @@
         <v>7.8049129826453996</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -7012,7 +7088,7 @@
         <v>21.731313812100701</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
@@ -7020,7 +7096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B37" s="14" t="s">
         <v>46</v>
       </c>
@@ -7046,7 +7122,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
@@ -7075,7 +7151,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>7.3</v>
       </c>
@@ -7117,7 +7193,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>6.2249999999999996</v>
       </c>
@@ -7158,7 +7234,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>9.25</v>
       </c>
@@ -7200,7 +7276,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>5.8</v>
       </c>
@@ -7232,7 +7308,7 @@
         <v>1.8362068965517242</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>21.25</v>
       </c>
@@ -7264,7 +7340,7 @@
         <v>0.50117647058823533</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>10.65</v>
       </c>
@@ -7305,7 +7381,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="P45" t="s">
         <v>57</v>
       </c>
@@ -7317,7 +7393,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B46" s="2" t="s">
         <v>59</v>
       </c>
@@ -7339,7 +7415,7 @@
         <v>26.625</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B47" s="2" t="s">
         <v>19</v>
       </c>
@@ -7372,7 +7448,7 @@
         <v>-0.32922535211267612</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B48" s="2" t="s">
         <v>18</v>
       </c>
@@ -7408,7 +7484,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B50" s="2" t="s">
         <v>44</v>
       </c>
@@ -7416,7 +7492,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B51" s="14" t="s">
         <v>46</v>
       </c>
@@ -7439,7 +7515,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
@@ -7459,7 +7535,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>5.4749999999999996</v>
       </c>
@@ -7509,7 +7585,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>3.9249999999999998</v>
       </c>
@@ -7570,7 +7646,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>4.8250000000000002</v>
       </c>
@@ -7631,7 +7707,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>4.7249999999999996</v>
       </c>
@@ -7692,7 +7768,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>16.5</v>
       </c>
@@ -7727,7 +7803,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>10.3</v>
       </c>
@@ -7762,7 +7838,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
       <c r="P59" s="2" t="s">
         <v>18</v>
       </c>
@@ -7777,7 +7853,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B60" s="2" t="s">
         <v>59</v>
       </c>
@@ -7788,7 +7864,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B61" s="2" t="s">
         <v>18</v>
       </c>
@@ -7821,7 +7897,7 @@
         <v>-0.71287878787878789</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B62" s="2" t="s">
         <v>19</v>
       </c>
@@ -7854,7 +7930,7 @@
         <v>-0.6638235294117647</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
       <c r="B64" s="2" t="s">
         <v>44</v>
       </c>
@@ -7862,7 +7938,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B65" s="14" t="s">
         <v>46</v>
       </c>
@@ -7885,7 +7961,7 @@
         <v>7.5750000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
@@ -7905,7 +7981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>4.9749999999999996</v>
       </c>
@@ -7937,7 +8013,7 @@
         <v>1.5226130653266332</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>4.5750000000000002</v>
       </c>
@@ -7969,7 +8045,7 @@
         <v>1.6557377049180328</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>4</v>
       </c>
@@ -8001,7 +8077,7 @@
         <v>1.89375</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>4.4249999999999998</v>
       </c>
@@ -8033,7 +8109,7 @@
         <v>1.7118644067796611</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>11.9</v>
       </c>
@@ -8065,7 +8141,7 @@
         <v>0.63655462184873945</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>7.5750000000000002</v>
       </c>
@@ -8097,7 +8173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B74" s="2" t="s">
         <v>59</v>
       </c>
@@ -8105,7 +8181,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B75" s="2" t="s">
         <v>18</v>
       </c>
@@ -8138,7 +8214,7 @@
         <v>-0.62237394957983194</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B76" s="2" t="s">
         <v>19</v>
       </c>
@@ -8171,7 +8247,7 @@
         <v>-0.40676567656765683</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -8183,7 +8259,7 @@
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B78" s="2" t="s">
         <v>44</v>
       </c>
@@ -8191,7 +8267,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B79" s="14" t="s">
         <v>20</v>
       </c>
@@ -8214,7 +8290,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
@@ -8234,7 +8310,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>6</v>
       </c>
@@ -8266,7 +8342,7 @@
         <v>1.9749999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>5.7</v>
       </c>
@@ -8298,7 +8374,7 @@
         <v>2.0789473684210527</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>6.15</v>
       </c>
@@ -8330,7 +8406,7 @@
         <v>1.9268292682926829</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>4.3</v>
       </c>
@@ -8362,7 +8438,7 @@
         <v>2.7558139534883721</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>13.25</v>
       </c>
@@ -8394,7 +8470,7 @@
         <v>0.89433962264150946</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>11.85</v>
       </c>
@@ -8426,7 +8502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B88" s="2" t="s">
         <v>59</v>
       </c>
@@ -8437,7 +8513,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B89" s="2" t="s">
         <v>18</v>
       </c>
@@ -8470,7 +8546,7 @@
         <v>-0.58207547169811324</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B90" s="2" t="s">
         <v>19</v>
       </c>
@@ -8503,7 +8579,7 @@
         <v>-0.40676567656765683</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -8515,7 +8591,7 @@
       <c r="I91" s="19"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B92" s="2" t="s">
         <v>44</v>
       </c>
@@ -8523,7 +8599,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B93" s="14" t="s">
         <v>77</v>
       </c>
@@ -8546,7 +8622,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
@@ -8572,7 +8648,7 @@
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="6">
         <v>6.15</v>
       </c>
@@ -8604,7 +8680,7 @@
         <v>2.0731707317073171</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="6">
         <v>5.2</v>
       </c>
@@ -8636,7 +8712,7 @@
         <v>2.4519230769230766</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="6">
         <v>11.475</v>
       </c>
@@ -8668,7 +8744,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="6">
         <v>5.7750000000000004</v>
       </c>
@@ -8700,7 +8776,7 @@
         <v>2.2077922077922079</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="6">
         <v>15</v>
       </c>
@@ -8732,7 +8808,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="6">
         <v>12.75</v>
       </c>
@@ -8764,7 +8840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B102" s="2" t="s">
         <v>59</v>
       </c>
@@ -8775,7 +8851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B103" s="2" t="s">
         <v>18</v>
       </c>
@@ -8808,7 +8884,7 @@
         <v>-0.52333333333333343</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B104" s="2" t="s">
         <v>19</v>
       </c>
@@ -8841,7 +8917,7 @@
         <v>-0.53270042194092826</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -8853,7 +8929,7 @@
       <c r="I105" s="19"/>
       <c r="J105" s="19"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B106" s="2" t="s">
         <v>44</v>
       </c>
@@ -8861,7 +8937,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="B107" s="14" t="s">
         <v>78</v>
       </c>
@@ -8884,7 +8960,7 @@
         <v>6.9749999999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
@@ -8904,7 +8980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="6">
         <v>6.4</v>
       </c>
@@ -8936,7 +9012,7 @@
         <v>1.0898437499999998</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="6">
         <v>5.5750000000000002</v>
       </c>
@@ -8974,7 +9050,7 @@
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="6">
         <v>5.7750000000000004</v>
       </c>
@@ -9006,7 +9082,7 @@
         <v>1.2077922077922076</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="6">
         <v>6.9249999999999998</v>
       </c>
@@ -9038,7 +9114,7 @@
         <v>1.0072202166064981</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113" s="6">
         <v>7.85</v>
       </c>
@@ -9070,7 +9146,7 @@
         <v>0.88853503184713378</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114" s="6">
         <v>6.9749999999999996</v>
       </c>
@@ -9102,7 +9178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B116" s="2" t="s">
         <v>59</v>
       </c>
@@ -9113,7 +9189,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B117" s="2" t="s">
         <v>18</v>
       </c>
@@ -9146,7 +9222,7 @@
         <v>-0.21417197452229295</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
@@ -9818,7 +9894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L60"/>
   <sheetViews>
@@ -9826,13 +9902,13 @@
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.109375" customWidth="1"/>
-    <col min="2" max="7" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="2" max="7" width="15.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -9852,7 +9928,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
@@ -9872,7 +9948,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -9895,7 +9971,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -9918,7 +9994,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="93" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -9941,7 +10017,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="62" x14ac:dyDescent="0.35">
       <c r="B9" s="24"/>
       <c r="C9" s="24" t="s">
         <v>93</v>
@@ -9960,7 +10036,7 @@
       </c>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="1:8" ht="78" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
       <c r="B10" s="27"/>
       <c r="C10" s="21" t="s">
         <v>95</v>
@@ -9976,7 +10052,7 @@
       </c>
       <c r="G10" s="27"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -10005,12 +10081,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -10037,12 +10113,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>101</v>
       </c>
@@ -10068,13 +10144,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="29" t="s">
         <v>103</v>
       </c>
@@ -10097,7 +10173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A22" s="29" t="s">
         <v>104</v>
       </c>
@@ -10123,7 +10199,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="30" t="s">
         <v>106</v>
       </c>
@@ -10139,7 +10215,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
@@ -10162,7 +10238,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
@@ -10181,7 +10257,7 @@
       </c>
       <c r="G26" s="27"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
@@ -10207,12 +10283,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>101</v>
       </c>
@@ -10238,7 +10314,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="29" t="s">
         <v>108</v>
       </c>
@@ -10261,7 +10337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="29" t="s">
         <v>109</v>
       </c>
@@ -10284,7 +10360,7 @@
         <v>0.11814345991561184</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="30" t="s">
         <v>77</v>
       </c>
@@ -10300,7 +10376,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B36" s="21" t="s">
         <v>89</v>
       </c>
@@ -10320,7 +10396,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
       <c r="B37" s="27"/>
       <c r="C37" s="21" t="s">
         <v>95</v>
@@ -10336,7 +10412,7 @@
       </c>
       <c r="G37" s="27"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
@@ -10359,17 +10435,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H41" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>101</v>
       </c>
@@ -10392,12 +10468,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="H43" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="29" t="s">
         <v>108</v>
       </c>
@@ -10420,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="29" t="s">
         <v>109</v>
       </c>
@@ -10443,7 +10519,7 @@
         <v>0.17647058823529413</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="19" t="s">
         <v>78</v>
       </c>
@@ -10461,7 +10537,7 @@
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
     </row>
-    <row r="50" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B50" s="21" t="s">
         <v>89</v>
       </c>
@@ -10481,7 +10557,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="78" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
       <c r="B51" s="27"/>
       <c r="C51" s="21" t="s">
         <v>95</v>
@@ -10497,7 +10573,7 @@
       </c>
       <c r="G51" s="27"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>99</v>
       </c>
@@ -10520,7 +10596,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>100</v>
       </c>
@@ -10528,7 +10604,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>101</v>
       </c>
@@ -10554,7 +10630,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="29" t="s">
         <v>108</v>
       </c>
@@ -10577,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A60" s="29" t="s">
         <v>109</v>
       </c>

--- a/Results/SummaryResultsNitrate.xlsx
+++ b/Results/SummaryResultsNitrate.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="0" windowWidth="27820" windowHeight="12790" activeTab="1"/>
+    <workbookView minimized="1" xWindow="3610" yWindow="0" windowWidth="27820" windowHeight="12790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryResultsNitrate" sheetId="1" r:id="rId1"/>
@@ -89,7 +89,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="120">
   <si>
     <t>kas</t>
   </si>
@@ -439,9 +439,6 @@
     <t>S1-S4 average</t>
   </si>
   <si>
-    <t>Significant</t>
-  </si>
-  <si>
     <t>Non-significant p&gt;0.05</t>
   </si>
   <si>
@@ -449,16 +446,20 @@
   </si>
   <si>
     <t>R, nitraatti 16.10.2017</t>
+  </si>
+  <si>
+    <t>Significantp p&lt;0.05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0\ %"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -1001,7 +1002,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1061,6 +1062,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -5831,17 +5833,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -5862,7 +5864,7 @@
         <v>-0.62205882352941178</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -5876,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -5891,62 +5893,117 @@
         <v>-0.36302521008403366</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(11.8,11.3,11.3,12.3)</f>
+        <v>11.675000000000001</v>
+      </c>
+      <c r="C9" s="31">
+        <f>B9/B10-1</f>
+        <v>0.10141509433962281</v>
+      </c>
+      <c r="D9" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C10" t="s">
-        <v>114</v>
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>10.6</v>
+      </c>
+      <c r="C10" s="15">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>9.6</v>
+      </c>
+      <c r="C11" s="15">
+        <f>B11/B10-1</f>
+        <v>-9.4339622641509413E-2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>115</v>
       </c>
-      <c r="B11">
+      <c r="B16">
         <f>AVERAGE(4.13,4,3.9,4.35)</f>
         <v>4.0949999999999998</v>
       </c>
-      <c r="C11" s="15">
-        <f>B11/B12-1</f>
+      <c r="C16" s="15">
+        <f>B16/B17-1</f>
         <v>6.9190600522193169E-2</v>
       </c>
-      <c r="D11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="B12">
+      <c r="B17">
         <v>3.83</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C17" s="15">
         <v>0</v>
       </c>
-      <c r="D12" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+      <c r="D17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="B13">
+      <c r="B18">
         <v>3.7</v>
       </c>
-      <c r="C13" s="15">
-        <f>B13/B12-1</f>
+      <c r="C18" s="15">
+        <f>B18/B17-1</f>
         <v>-3.394255874673624E-2</v>
       </c>
-      <c r="D13" t="s">
-        <v>117</v>
+      <c r="D18" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Results/SummaryResultsNitrate.xlsx
+++ b/Results/SummaryResultsNitrate.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\N\Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\N\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="3610" yWindow="0" windowWidth="27820" windowHeight="12790" activeTab="1"/>
+    <workbookView xWindow="4428" yWindow="0" windowWidth="27816" windowHeight="12792" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SummaryResultsNitrate" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <definedName name="Smg" localSheetId="2">'2015'!$A$18:$M$24</definedName>
     <definedName name="Smgsd" localSheetId="2">'2015'!$A$26:$M$31</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -456,10 +456,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0\ %"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0\ %"/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -958,7 +958,7 @@
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1004,7 +1004,7 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1015,11 +1015,11 @@
     <xf numFmtId="0" fontId="13" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1062,7 +1062,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1112,10 +1112,78 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="35" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1128,15 +1196,15 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Smg" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="nitNsd" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Smgsd" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Smg" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1167,10 +1235,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="FFFFFF"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="000000"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1465,13 +1533,13 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
-    <col min="9" max="9" width="19.54296875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="9" max="9" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1500,7 +1568,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -1530,7 +1598,7 @@
         <v>29.5625</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>11</v>
       </c>
@@ -1560,7 +1628,7 @@
         <v>28.1875</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>17</v>
       </c>
@@ -1590,7 +1658,7 @@
         <v>28.125</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>23</v>
       </c>
@@ -1620,7 +1688,7 @@
         <v>30.625</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>29</v>
       </c>
@@ -1650,7 +1718,7 @@
         <v>26.4375</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>35</v>
       </c>
@@ -1680,7 +1748,7 @@
         <v>23.9375</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>41</v>
       </c>
@@ -1710,7 +1778,7 @@
         <v>29.375</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>47</v>
       </c>
@@ -1740,7 +1808,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>53</v>
       </c>
@@ -1770,7 +1838,7 @@
         <v>27.4375</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>59</v>
       </c>
@@ -1800,7 +1868,7 @@
         <v>30.625</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>65</v>
       </c>
@@ -1830,7 +1898,7 @@
         <v>26.0625</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>71</v>
       </c>
@@ -1860,7 +1928,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>77</v>
       </c>
@@ -1890,7 +1958,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>83</v>
       </c>
@@ -1920,7 +1988,7 @@
         <v>29.3125</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>89</v>
       </c>
@@ -1950,7 +2018,7 @@
         <v>30.625</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>95</v>
       </c>
@@ -1983,7 +2051,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>101</v>
       </c>
@@ -2013,7 +2081,7 @@
         <v>25.625</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>107</v>
       </c>
@@ -2043,7 +2111,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>113</v>
       </c>
@@ -2073,7 +2141,7 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>119</v>
       </c>
@@ -2103,7 +2171,7 @@
         <v>36.875</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>125</v>
       </c>
@@ -2133,7 +2201,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>131</v>
       </c>
@@ -2163,7 +2231,7 @@
         <v>30.625</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>137</v>
       </c>
@@ -2193,7 +2261,7 @@
         <v>32.5625</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>143</v>
       </c>
@@ -2223,7 +2291,7 @@
         <v>28.5625</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>3</v>
       </c>
@@ -2253,7 +2321,7 @@
         <v>12.4375</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>9</v>
       </c>
@@ -2283,7 +2351,7 @@
         <v>11.4375</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>15</v>
       </c>
@@ -2313,7 +2381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>21</v>
       </c>
@@ -2343,7 +2411,7 @@
         <v>11.0625</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
       </c>
@@ -2373,7 +2441,7 @@
         <v>29.75</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>33</v>
       </c>
@@ -2403,7 +2471,7 @@
         <v>18.9375</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>39</v>
       </c>
@@ -2433,7 +2501,7 @@
         <v>11.875</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>45</v>
       </c>
@@ -2463,7 +2531,7 @@
         <v>10.625</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>51</v>
       </c>
@@ -2493,7 +2561,7 @@
         <v>10.625</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>57</v>
       </c>
@@ -2523,7 +2591,7 @@
         <v>11.3125</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>63</v>
       </c>
@@ -2553,7 +2621,7 @@
         <v>18.9375</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>69</v>
       </c>
@@ -2583,7 +2651,7 @@
         <v>20.375</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>75</v>
       </c>
@@ -2613,7 +2681,7 @@
         <v>14.0625</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>81</v>
       </c>
@@ -2643,7 +2711,7 @@
         <v>10.1875</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>87</v>
       </c>
@@ -2673,7 +2741,7 @@
         <v>10.875</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>93</v>
       </c>
@@ -2703,7 +2771,7 @@
         <v>11.875</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>99</v>
       </c>
@@ -2733,7 +2801,7 @@
         <v>23.625</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>105</v>
       </c>
@@ -2763,7 +2831,7 @@
         <v>20.625</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>111</v>
       </c>
@@ -2793,7 +2861,7 @@
         <v>9.5625</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>117</v>
       </c>
@@ -2823,7 +2891,7 @@
         <v>10.375</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>123</v>
       </c>
@@ -2853,7 +2921,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>129</v>
       </c>
@@ -2883,7 +2951,7 @@
         <v>10.8125</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>135</v>
       </c>
@@ -2913,7 +2981,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>141</v>
       </c>
@@ -2943,7 +3011,7 @@
         <v>13.9375</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>6</v>
       </c>
@@ -2973,7 +3041,7 @@
         <v>10.3125</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>12</v>
       </c>
@@ -3003,7 +3071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>18</v>
       </c>
@@ -3033,7 +3101,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>24</v>
       </c>
@@ -3063,7 +3131,7 @@
         <v>10.875</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>30</v>
       </c>
@@ -3093,7 +3161,7 @@
         <v>9.5625</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>36</v>
       </c>
@@ -3123,7 +3191,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>42</v>
       </c>
@@ -3153,7 +3221,7 @@
         <v>8.375</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>48</v>
       </c>
@@ -3183,7 +3251,7 @@
         <v>9.8125</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>54</v>
       </c>
@@ -3213,7 +3281,7 @@
         <v>9.5625</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -3243,7 +3311,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>66</v>
       </c>
@@ -3273,7 +3341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>72</v>
       </c>
@@ -3303,7 +3371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>78</v>
       </c>
@@ -3333,7 +3401,7 @@
         <v>8.9375</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>84</v>
       </c>
@@ -3363,7 +3431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>90</v>
       </c>
@@ -3393,7 +3461,7 @@
         <v>9.375</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>96</v>
       </c>
@@ -3423,7 +3491,7 @@
         <v>9.875</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>102</v>
       </c>
@@ -3453,7 +3521,7 @@
         <v>7.9375</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>108</v>
       </c>
@@ -3483,7 +3551,7 @@
         <v>8.125</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>114</v>
       </c>
@@ -3513,7 +3581,7 @@
         <v>10.3125</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>120</v>
       </c>
@@ -3543,7 +3611,7 @@
         <v>12.8125</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>126</v>
       </c>
@@ -3573,7 +3641,7 @@
         <v>9.625</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>132</v>
       </c>
@@ -3603,7 +3671,7 @@
         <v>9.75</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>138</v>
       </c>
@@ -3633,7 +3701,7 @@
         <v>9.125</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>144</v>
       </c>
@@ -3663,7 +3731,7 @@
         <v>9.375</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>4</v>
       </c>
@@ -3693,7 +3761,7 @@
         <v>24.125</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>10</v>
       </c>
@@ -3723,7 +3791,7 @@
         <v>16.8125</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -3753,7 +3821,7 @@
         <v>20.875</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>22</v>
       </c>
@@ -3783,7 +3851,7 @@
         <v>23.0625</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>28</v>
       </c>
@@ -3813,7 +3881,7 @@
         <v>23.6875</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>34</v>
       </c>
@@ -3843,7 +3911,7 @@
         <v>23.8125</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>40</v>
       </c>
@@ -3873,7 +3941,7 @@
         <v>21.9375</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>46</v>
       </c>
@@ -3903,7 +3971,7 @@
         <v>21.875</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>52</v>
       </c>
@@ -3933,7 +4001,7 @@
         <v>25.3125</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>58</v>
       </c>
@@ -3963,7 +4031,7 @@
         <v>26.5625</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>64</v>
       </c>
@@ -3993,7 +4061,7 @@
         <v>28.1875</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>70</v>
       </c>
@@ -4023,7 +4091,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>76</v>
       </c>
@@ -4053,7 +4121,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>82</v>
       </c>
@@ -4083,7 +4151,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4113,7 +4181,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>94</v>
       </c>
@@ -4143,7 +4211,7 @@
         <v>25.3125</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>100</v>
       </c>
@@ -4173,7 +4241,7 @@
         <v>27.375</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>106</v>
       </c>
@@ -4203,7 +4271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>112</v>
       </c>
@@ -4233,7 +4301,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>118</v>
       </c>
@@ -4263,7 +4331,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>124</v>
       </c>
@@ -4293,7 +4361,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>130</v>
       </c>
@@ -4323,7 +4391,7 @@
         <v>19.4375</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>136</v>
       </c>
@@ -4353,7 +4421,7 @@
         <v>31.1875</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>142</v>
       </c>
@@ -4383,7 +4451,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2</v>
       </c>
@@ -4413,7 +4481,7 @@
         <v>13.6875</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>8</v>
       </c>
@@ -4443,7 +4511,7 @@
         <v>9.8125</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>14</v>
       </c>
@@ -4473,7 +4541,7 @@
         <v>12.0625</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>20</v>
       </c>
@@ -4503,7 +4571,7 @@
         <v>11.8125</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>26</v>
       </c>
@@ -4533,7 +4601,7 @@
         <v>41.25</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>32</v>
       </c>
@@ -4563,7 +4631,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>38</v>
       </c>
@@ -4593,7 +4661,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>44</v>
       </c>
@@ -4623,7 +4691,7 @@
         <v>14.25</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>50</v>
       </c>
@@ -4653,7 +4721,7 @@
         <v>15.375</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>56</v>
       </c>
@@ -4683,7 +4751,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>62</v>
       </c>
@@ -4713,7 +4781,7 @@
         <v>33.125</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>68</v>
       </c>
@@ -4743,7 +4811,7 @@
         <v>29.625</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>74</v>
       </c>
@@ -4773,7 +4841,7 @@
         <v>15.375</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>80</v>
       </c>
@@ -4803,7 +4871,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>86</v>
       </c>
@@ -4833,7 +4901,7 @@
         <v>28.6875</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>92</v>
       </c>
@@ -4863,7 +4931,7 @@
         <v>14.4375</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>98</v>
       </c>
@@ -4893,7 +4961,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>104</v>
       </c>
@@ -4923,7 +4991,7 @@
         <v>31.875</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>110</v>
       </c>
@@ -4953,7 +5021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>116</v>
       </c>
@@ -4983,7 +5051,7 @@
         <v>13.9375</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>122</v>
       </c>
@@ -5013,7 +5081,7 @@
         <v>14.4375</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>128</v>
       </c>
@@ -5043,7 +5111,7 @@
         <v>17.3125</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>134</v>
       </c>
@@ -5073,7 +5141,7 @@
         <v>19.625</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>140</v>
       </c>
@@ -5103,7 +5171,7 @@
         <v>17.4375</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1</v>
       </c>
@@ -5133,7 +5201,7 @@
         <v>18.25</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>7</v>
       </c>
@@ -5163,7 +5231,7 @@
         <v>15.5625</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>13</v>
       </c>
@@ -5193,7 +5261,7 @@
         <v>23.125</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>19</v>
       </c>
@@ -5223,7 +5291,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>25</v>
       </c>
@@ -5253,7 +5321,7 @@
         <v>53.125</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>31</v>
       </c>
@@ -5283,7 +5351,7 @@
         <v>26.625</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>37</v>
       </c>
@@ -5313,7 +5381,7 @@
         <v>18.4375</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>43</v>
       </c>
@@ -5343,7 +5411,7 @@
         <v>17.625</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>49</v>
       </c>
@@ -5373,7 +5441,7 @@
         <v>14.1875</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>55</v>
       </c>
@@ -5403,7 +5471,7 @@
         <v>15.0625</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>61</v>
       </c>
@@ -5433,7 +5501,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>67</v>
       </c>
@@ -5463,7 +5531,7 @@
         <v>27.125</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>73</v>
       </c>
@@ -5493,7 +5561,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>79</v>
       </c>
@@ -5523,7 +5591,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>85</v>
       </c>
@@ -5553,7 +5621,7 @@
         <v>18.4375</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>91</v>
       </c>
@@ -5583,7 +5651,7 @@
         <v>16.875</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>97</v>
       </c>
@@ -5613,7 +5681,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>103</v>
       </c>
@@ -5643,7 +5711,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>109</v>
       </c>
@@ -5673,7 +5741,7 @@
         <v>12.6875</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>115</v>
       </c>
@@ -5703,7 +5771,7 @@
         <v>14.0625</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>121</v>
       </c>
@@ -5733,7 +5801,7 @@
         <v>12.3125</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>127</v>
       </c>
@@ -5763,7 +5831,7 @@
         <v>14.4375</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>133</v>
       </c>
@@ -5793,7 +5861,7 @@
         <v>21.1875</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>139</v>
       </c>
@@ -5835,23 +5903,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>115</v>
       </c>
@@ -5867,7 +5935,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -5881,7 +5949,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -5896,17 +5964,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>115</v>
       </c>
@@ -5922,7 +5990,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -5936,7 +6004,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -5951,17 +6019,17 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>115</v>
       </c>
@@ -5977,7 +6045,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -5991,7 +6059,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -6015,19 +6083,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA118"/>
   <sheetViews>
-    <sheetView topLeftCell="F31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="U46" sqref="U46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="13" width="8.6328125" customWidth="1"/>
+    <col min="2" max="13" width="8.6640625" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="23" max="23" width="16.54296875" customWidth="1"/>
+    <col min="23" max="23" width="16.5546875" customWidth="1"/>
     <col min="29" max="29" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -6035,7 +6103,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>27</v>
       </c>
@@ -6073,7 +6141,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -6118,7 +6186,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6163,7 +6231,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6208,7 +6276,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6249,7 +6317,7 @@
         <v>4.3250000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -6290,7 +6358,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6331,7 +6399,7 @@
         <v>5.5750000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
@@ -6339,7 +6407,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -6380,7 +6448,7 @@
         <v>0.76321687612368705</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -6421,7 +6489,7 @@
         <v>0.65574385243019995</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -6462,7 +6530,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>17</v>
       </c>
@@ -6503,7 +6571,7 @@
         <v>0.73654599313281199</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -6544,7 +6612,7 @@
         <v>2.5139610179953098</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -6585,7 +6653,7 @@
         <v>1.3671747023210601</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -6599,7 +6667,7 @@
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>43</v>
       </c>
@@ -6607,7 +6675,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B18" s="11" t="s">
         <v>27</v>
       </c>
@@ -6645,7 +6713,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -6686,7 +6754,7 @@
         <v>48.5</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -6727,7 +6795,7 @@
         <v>48.25</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -6768,7 +6836,7 @@
         <v>40.5</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -6809,7 +6877,7 @@
         <v>45.75</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -6850,7 +6918,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -6891,7 +6959,7 @@
         <v>37.25</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>43</v>
       </c>
@@ -6899,7 +6967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -6940,7 +7008,7 @@
         <v>6.4549722436790304</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -6981,7 +7049,7 @@
         <v>8.5391256382996694</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -7022,7 +7090,7 @@
         <v>17.935068069752798</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>17</v>
       </c>
@@ -7063,7 +7131,7 @@
         <v>17.895530168173298</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>18</v>
       </c>
@@ -7104,7 +7172,7 @@
         <v>7.8049129826453996</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>19</v>
       </c>
@@ -7145,7 +7213,7 @@
         <v>21.731313812100701</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
         <v>44</v>
       </c>
@@ -7153,7 +7221,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>46</v>
       </c>
@@ -7179,7 +7247,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="C38" s="2" t="s">
         <v>8</v>
       </c>
@@ -7208,7 +7276,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>7.3</v>
       </c>
@@ -7250,7 +7318,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>6.2249999999999996</v>
       </c>
@@ -7291,7 +7359,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>9.25</v>
       </c>
@@ -7333,7 +7401,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>5.8</v>
       </c>
@@ -7365,7 +7433,7 @@
         <v>1.8362068965517242</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>21.25</v>
       </c>
@@ -7397,7 +7465,7 @@
         <v>0.50117647058823533</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>10.65</v>
       </c>
@@ -7438,7 +7506,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="P45" t="s">
         <v>57</v>
       </c>
@@ -7450,7 +7518,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B46" s="2" t="s">
         <v>59</v>
       </c>
@@ -7472,7 +7540,7 @@
         <v>26.625</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B47" s="2" t="s">
         <v>19</v>
       </c>
@@ -7505,7 +7573,7 @@
         <v>-0.32922535211267612</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B48" s="2" t="s">
         <v>18</v>
       </c>
@@ -7541,7 +7609,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B50" s="2" t="s">
         <v>44</v>
       </c>
@@ -7549,7 +7617,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>46</v>
       </c>
@@ -7572,7 +7640,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="C52" s="2" t="s">
         <v>8</v>
       </c>
@@ -7592,7 +7660,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5.4749999999999996</v>
       </c>
@@ -7642,7 +7710,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3.9249999999999998</v>
       </c>
@@ -7703,7 +7771,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>4.8250000000000002</v>
       </c>
@@ -7764,7 +7832,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>4.7249999999999996</v>
       </c>
@@ -7825,7 +7893,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>16.5</v>
       </c>
@@ -7860,7 +7928,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>10.3</v>
       </c>
@@ -7895,7 +7963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="P59" s="2" t="s">
         <v>18</v>
       </c>
@@ -7910,7 +7978,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B60" s="2" t="s">
         <v>59</v>
       </c>
@@ -7921,7 +7989,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B61" s="2" t="s">
         <v>18</v>
       </c>
@@ -7954,7 +8022,7 @@
         <v>-0.71287878787878789</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B62" s="2" t="s">
         <v>19</v>
       </c>
@@ -7987,7 +8055,7 @@
         <v>-0.6638235294117647</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="B64" s="2" t="s">
         <v>44</v>
       </c>
@@ -7995,7 +8063,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>46</v>
       </c>
@@ -8018,7 +8086,7 @@
         <v>7.5750000000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
@@ -8038,7 +8106,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>4.9749999999999996</v>
       </c>
@@ -8070,7 +8138,7 @@
         <v>1.5226130653266332</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>4.5750000000000002</v>
       </c>
@@ -8102,7 +8170,7 @@
         <v>1.6557377049180328</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>4</v>
       </c>
@@ -8134,7 +8202,7 @@
         <v>1.89375</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>4.4249999999999998</v>
       </c>
@@ -8166,7 +8234,7 @@
         <v>1.7118644067796611</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>11.9</v>
       </c>
@@ -8198,7 +8266,7 @@
         <v>0.63655462184873945</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7.5750000000000002</v>
       </c>
@@ -8230,7 +8298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B74" s="2" t="s">
         <v>59</v>
       </c>
@@ -8238,7 +8306,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B75" s="2" t="s">
         <v>18</v>
       </c>
@@ -8271,7 +8339,7 @@
         <v>-0.62237394957983194</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B76" s="2" t="s">
         <v>19</v>
       </c>
@@ -8304,7 +8372,7 @@
         <v>-0.40676567656765683</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="19"/>
       <c r="B77" s="19"/>
       <c r="C77" s="19"/>
@@ -8316,7 +8384,7 @@
       <c r="I77" s="19"/>
       <c r="J77" s="19"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B78" s="2" t="s">
         <v>44</v>
       </c>
@@ -8324,7 +8392,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>20</v>
       </c>
@@ -8347,7 +8415,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C80" s="2" t="s">
         <v>8</v>
       </c>
@@ -8367,7 +8435,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>6</v>
       </c>
@@ -8399,7 +8467,7 @@
         <v>1.9749999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>5.7</v>
       </c>
@@ -8431,7 +8499,7 @@
         <v>2.0789473684210527</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>6.15</v>
       </c>
@@ -8463,7 +8531,7 @@
         <v>1.9268292682926829</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>4.3</v>
       </c>
@@ -8495,7 +8563,7 @@
         <v>2.7558139534883721</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>13.25</v>
       </c>
@@ -8527,7 +8595,7 @@
         <v>0.89433962264150946</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>11.85</v>
       </c>
@@ -8559,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B88" s="2" t="s">
         <v>59</v>
       </c>
@@ -8570,7 +8638,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B89" s="2" t="s">
         <v>18</v>
       </c>
@@ -8603,7 +8671,7 @@
         <v>-0.58207547169811324</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B90" s="2" t="s">
         <v>19</v>
       </c>
@@ -8636,7 +8704,7 @@
         <v>-0.40676567656765683</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="19"/>
       <c r="B91" s="19"/>
       <c r="C91" s="19"/>
@@ -8648,7 +8716,7 @@
       <c r="I91" s="19"/>
       <c r="J91" s="19"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B92" s="2" t="s">
         <v>44</v>
       </c>
@@ -8656,7 +8724,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>77</v>
       </c>
@@ -8679,7 +8747,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C94" s="2" t="s">
         <v>8</v>
       </c>
@@ -8705,7 +8773,7 @@
       <c r="P94" s="6"/>
       <c r="Q94" s="6"/>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="6">
         <v>6.15</v>
       </c>
@@ -8737,7 +8805,7 @@
         <v>2.0731707317073171</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="6">
         <v>5.2</v>
       </c>
@@ -8769,7 +8837,7 @@
         <v>2.4519230769230766</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="6">
         <v>11.475</v>
       </c>
@@ -8801,7 +8869,7 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="6">
         <v>5.7750000000000004</v>
       </c>
@@ -8833,7 +8901,7 @@
         <v>2.2077922077922079</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="6">
         <v>15</v>
       </c>
@@ -8865,7 +8933,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="6">
         <v>12.75</v>
       </c>
@@ -8897,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B102" s="2" t="s">
         <v>59</v>
       </c>
@@ -8908,7 +8976,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B103" s="2" t="s">
         <v>18</v>
       </c>
@@ -8941,7 +9009,7 @@
         <v>-0.52333333333333343</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B104" s="2" t="s">
         <v>19</v>
       </c>
@@ -8974,7 +9042,7 @@
         <v>-0.53270042194092826</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="19"/>
       <c r="B105" s="19"/>
       <c r="C105" s="19"/>
@@ -8986,7 +9054,7 @@
       <c r="I105" s="19"/>
       <c r="J105" s="19"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B106" s="2" t="s">
         <v>44</v>
       </c>
@@ -8994,7 +9062,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>78</v>
       </c>
@@ -9017,7 +9085,7 @@
         <v>6.9749999999999996</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
@@ -9037,7 +9105,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="6">
         <v>6.4</v>
       </c>
@@ -9069,7 +9137,7 @@
         <v>1.0898437499999998</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="6">
         <v>5.5750000000000002</v>
       </c>
@@ -9107,7 +9175,7 @@
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="6">
         <v>5.7750000000000004</v>
       </c>
@@ -9139,7 +9207,7 @@
         <v>1.2077922077922076</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="6">
         <v>6.9249999999999998</v>
       </c>
@@ -9171,7 +9239,7 @@
         <v>1.0072202166064981</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="6">
         <v>7.85</v>
       </c>
@@ -9203,7 +9271,7 @@
         <v>0.88853503184713378</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="6">
         <v>6.9749999999999996</v>
       </c>
@@ -9235,7 +9303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B116" s="2" t="s">
         <v>59</v>
       </c>
@@ -9246,7 +9314,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B117" s="2" t="s">
         <v>18</v>
       </c>
@@ -9279,7 +9347,7 @@
         <v>-0.21417197452229295</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B118" s="2" t="s">
         <v>19</v>
       </c>
@@ -9955,17 +10023,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L60"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
-    <col min="2" max="7" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>19</v>
       </c>
@@ -9985,7 +10053,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
@@ -10005,7 +10073,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>80</v>
       </c>
@@ -10028,7 +10096,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -10051,7 +10119,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="93" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -10074,7 +10142,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="62" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B9" s="24"/>
       <c r="C9" s="24" t="s">
         <v>93</v>
@@ -10093,7 +10161,7 @@
       </c>
       <c r="H9" s="26"/>
     </row>
-    <row r="10" spans="1:8" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="78" x14ac:dyDescent="0.3">
       <c r="B10" s="27"/>
       <c r="C10" s="21" t="s">
         <v>95</v>
@@ -10109,7 +10177,7 @@
       </c>
       <c r="G10" s="27"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -10138,12 +10206,12 @@
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>99</v>
       </c>
@@ -10170,12 +10238,12 @@
         <v>190</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>101</v>
       </c>
@@ -10201,13 +10269,13 @@
         <v>102</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
         <v>103</v>
       </c>
@@ -10230,7 +10298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="29" t="s">
         <v>104</v>
       </c>
@@ -10256,7 +10324,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
         <v>106</v>
       </c>
@@ -10272,7 +10340,7 @@
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
     </row>
-    <row r="25" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>88</v>
       </c>
@@ -10295,7 +10363,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>90</v>
       </c>
@@ -10314,7 +10382,7 @@
       </c>
       <c r="G26" s="27"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>99</v>
       </c>
@@ -10340,12 +10408,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>101</v>
       </c>
@@ -10371,7 +10439,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A32" s="29" t="s">
         <v>108</v>
       </c>
@@ -10394,7 +10462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="29" t="s">
         <v>109</v>
       </c>
@@ -10417,7 +10485,7 @@
         <v>0.11814345991561184</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
         <v>77</v>
       </c>
@@ -10433,7 +10501,7 @@
       <c r="K35" s="7"/>
       <c r="L35" s="7"/>
     </row>
-    <row r="36" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B36" s="21" t="s">
         <v>89</v>
       </c>
@@ -10453,7 +10521,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="B37" s="27"/>
       <c r="C37" s="21" t="s">
         <v>95</v>
@@ -10469,7 +10537,7 @@
       </c>
       <c r="G37" s="27"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>99</v>
       </c>
@@ -10492,17 +10560,17 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H41" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>101</v>
       </c>
@@ -10525,12 +10593,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H43" s="2" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="29" t="s">
         <v>108</v>
       </c>
@@ -10553,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="29" t="s">
         <v>109</v>
       </c>
@@ -10576,7 +10644,7 @@
         <v>0.17647058823529413</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="19" t="s">
         <v>78</v>
       </c>
@@ -10594,7 +10662,7 @@
       <c r="K49" s="19"/>
       <c r="L49" s="19"/>
     </row>
-    <row r="50" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B50" s="21" t="s">
         <v>89</v>
       </c>
@@ -10614,7 +10682,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" ht="78" x14ac:dyDescent="0.3">
       <c r="B51" s="27"/>
       <c r="C51" s="21" t="s">
         <v>95</v>
@@ -10630,7 +10698,7 @@
       </c>
       <c r="G51" s="27"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>99</v>
       </c>
@@ -10653,7 +10721,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>100</v>
       </c>
@@ -10661,7 +10729,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>101</v>
       </c>
@@ -10687,7 +10755,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="29" t="s">
         <v>108</v>
       </c>
@@ -10710,7 +10778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A60" s="29" t="s">
         <v>109</v>
       </c>
